--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>43357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44754</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43712</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44237</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44768</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44953</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45034</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45077</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45086</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45141</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43353</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43360</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43360</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43388</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43395</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43406</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43413</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43413</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43418</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43420</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43426</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43427</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43431</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43441</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43451</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43452</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43455</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43455</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43460</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43461</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>43464</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43464</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>43466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>43468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>43472</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43473</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43474</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43474</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43475</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>43479</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>43489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>43489</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>43493</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43494</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>43496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>43496</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>43507</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>43509</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43517</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43521</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43521</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43522</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43524</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43526</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43528</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43537</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43538</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43542</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43557</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>43558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43558</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43559</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43559</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43563</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43564</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43570</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43580</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43580</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>43628</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>43629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>43640</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>43643</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>43651</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43651</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43662</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>43667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>43677</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>43678</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>43679</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43684</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43684</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43685</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43690</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43693</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43696</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43696</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43705</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43706</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43712</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43712</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43735</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43740</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43746</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43752</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>43762</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43763</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43763</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43769</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43771</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43781</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>43784</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43784</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43789</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43791</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43804</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43804</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43805</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>43805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>43808</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>43808</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43812</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43816</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43846</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43847</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43847</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43850</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43850</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43851</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>43852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>43853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>43853</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>43859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43860</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43862</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43866</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43885</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43902</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43903</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>43913</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>43921</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>43921</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43937</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>43938</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>43941</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43962</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43966</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43966</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>43985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>43986</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>43986</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>43992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>43992</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>43997</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>43997</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44000</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44000</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>44006</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44013</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44019</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44039</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44048</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44048</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44055</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44055</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44060</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44068</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44081</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44088</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44088</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44090</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44094</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44099</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44105</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44109</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44120</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44124</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44130</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44132</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44132</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44134</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44134</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44140</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44144</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44145</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44145</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44146</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44152</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44155</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44155</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44165</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44166</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44167</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44172</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44172</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>44174</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44174</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44175</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44176</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44180</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44194</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44203</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44203</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44209</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44209</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44211</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44211</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44214</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44216</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44238</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>44238</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44239</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44239</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>44245</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44250</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44251</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44251</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44258</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44262</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44262</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44280</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44284</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44285</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>44298</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44306</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44307</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44308</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44312</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>44313</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>44313</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44328</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44329</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>44336</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28326,7 +28326,7 @@
         <v>44350</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>44355</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44362</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44362</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44368</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44379</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44403</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44405</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44410</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44410</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44426</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44426</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>44431</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>44432</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44432</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44434</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44435</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44441</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44441</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44449</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44449</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44452</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44452</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44453</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44454</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44455</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44461</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44467</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44468</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44468</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44469</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44469</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44473</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44473</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44483</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>44484</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44490</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44490</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44494</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44495</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44497</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44499</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44499</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44510</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44516</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44516</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44522</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>44524</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44524</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44525</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44533</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44533</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>44536</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>44536</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>44537</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>44544</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>44544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44550</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44582</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44585</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44588</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>44592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>44593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44594</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44606</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44606</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44608</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44608</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44610</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44613</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>44616</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44617</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44617</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>44618</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>44626</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>44628</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>44628</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>44634</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44636</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44638</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>44642</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44643</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44644</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44648</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44654</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44655</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44658</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44662</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44662</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44664</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44664</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>44671</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44671</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>44673</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36032,7 +36032,7 @@
         <v>44673</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>44683</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>44689</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44693</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>44698</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44699</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44701</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44712</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44712</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44720</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44722</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>44729</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>44729</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
         <v>44732</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44732</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44733</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44734</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44746</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44746</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37527,7 +37527,7 @@
         <v>44749</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37584,7 +37584,7 @@
         <v>44755</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>44755</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>44756</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>44763</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44768</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>44781</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44781</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>44782</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44783</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>44784</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44785</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>44789</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>44792</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>44797</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>44799</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44799</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38620,7 +38620,7 @@
         <v>44804</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>44804</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>44805</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>44805</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>44819</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>44819</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>44825</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>44825</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>44832</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>44833</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>44834</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>44834</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44837</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         <v>44839</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39604,7 +39604,7 @@
         <v>44842</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39661,7 +39661,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44851</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44851</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44861</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44864</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>44865</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>44865</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>44871</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>44873</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>44875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>44881</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44886</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44886</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>44889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>44889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>44900</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>44903</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>44903</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>44904</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>44909</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>44914</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44915</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44915</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44917</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44917</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44918</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44918</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44925</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44928</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44930</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>44930</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44942</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44942</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>44946</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44946</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42955,7 +42955,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44953</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44953</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44955</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44956</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>44959</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44959</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44964</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44964</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44965</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44965</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44966</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44966</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>44978</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44979</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44983</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>44985</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44985</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>44998</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44998</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44524,7 +44524,7 @@
         <v>45002</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45004</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45005</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45005</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45006</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45006</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>45008</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45014</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45020</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45021</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45028</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45029</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45036</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45036</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45041</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45041</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45044</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45044</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45048</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45049</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45050</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45050</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45054</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>45056</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45056</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45057</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45058</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46217,7 +46217,7 @@
         <v>45058</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>45061</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45063</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45063</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45068</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46507,7 +46507,7 @@
         <v>45070</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45077</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45079</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45086</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>45093</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45099</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45103</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47330,7 +47330,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47387,7 +47387,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47682,7 +47682,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47739,7 +47739,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
         <v>45106</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47915,7 +47915,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48034,7 +48034,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>45117</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45118</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45119</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45120</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45138</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>45140</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48624,7 +48624,7 @@
         <v>45146</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48748,7 +48748,7 @@
         <v>45151</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45154</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48919,7 +48919,7 @@
         <v>45156</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48976,7 +48976,7 @@
         <v>45159</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45170</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44754</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43357</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>43816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45034</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43712</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>44336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44768</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44953</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>45063</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>45077</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>45086</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>45097</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45141</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>45181</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43353</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43360</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43360</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43388</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43396</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43406</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43406</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43413</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43413</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43418</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43426</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43426</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43427</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43431</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43431</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43439</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>43445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>43455</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43461</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43464</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43464</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>43466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43474</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43475</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43480</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43486</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>43489</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>43493</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>43494</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43496</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>43507</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43507</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43509</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43521</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>43524</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43524</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43526</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43528</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43537</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43538</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43539</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43539</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43542</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43557</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43559</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43570</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43580</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43580</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43585</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43595</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>43619</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>43629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43643</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>43656</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43662</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>43667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>43667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>43677</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43678</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>43679</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43684</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>43685</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>43690</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>43690</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>43693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>43693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>43696</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>43696</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>43705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>43706</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>43712</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>43712</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>43713</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>43721</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>43728</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>43752</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>43754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>43762</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>43768</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43771</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>43781</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>43784</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>43787</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43787</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43788</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43788</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>43789</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>43791</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>43795</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43797</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43804</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>43804</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>43805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>43805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>43808</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>43808</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>43812</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43812</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43816</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43844</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43845</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>43846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>43848</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>43850</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43850</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>43853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>43853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>43859</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>43860</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>43866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>43885</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>43896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>43921</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>43921</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>43937</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>43938</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>43938</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>43941</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>43962</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>43966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>43966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>43985</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>43985</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>43986</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>43986</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>43992</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>43992</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>43997</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>43997</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44000</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44000</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44006</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44013</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44014</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44035</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44039</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44041</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44042</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44042</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44048</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44048</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44055</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44060</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44069</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44069</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44070</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44075</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44081</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44085</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44089</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44090</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44094</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>44096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44099</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44099</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44105</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44105</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44109</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44120</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44130</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44132</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44132</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44134</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24537,7 +24537,7 @@
         <v>44144</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24651,7 +24651,7 @@
         <v>44145</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24765,7 +24765,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44155</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44165</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44166</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44167</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44172</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44172</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44175</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44176</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44180</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44188</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44194</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44203</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>44203</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44209</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>44209</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>44211</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26225,7 +26225,7 @@
         <v>44211</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>44214</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44221</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44224</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44230</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44238</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44238</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>44239</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>44239</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>44245</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44245</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44250</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44251</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44262</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44262</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44280</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>44284</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44285</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44295</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44298</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44306</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44307</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44308</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44312</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>44328</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>44329</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>44333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>44336</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>44350</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44355</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44355</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44362</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44362</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44368</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44379</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>44403</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>44405</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>44410</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>44410</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44426</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44426</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44431</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44431</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         <v>44432</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>44432</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44434</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44435</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>44441</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>44441</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44449</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44449</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44452</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44452</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44453</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44454</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44455</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44461</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44467</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44467</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44468</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44468</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44469</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30999,7 +30999,7 @@
         <v>44469</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44470</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44473</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>44473</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>44483</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>44484</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>44490</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>44490</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>44494</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>44495</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>44497</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>44497</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44499</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44499</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>44503</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44510</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>44515</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44516</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44516</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44522</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44524</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44524</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44525</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>44533</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>44533</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44536</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44536</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44537</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44544</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44544</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44550</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44573</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44582</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44585</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33874,7 +33874,7 @@
         <v>44588</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         <v>44588</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>44592</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>44593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34107,7 +34107,7 @@
         <v>44594</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44606</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44608</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44608</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>44610</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34526,7 +34526,7 @@
         <v>44613</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34583,7 +34583,7 @@
         <v>44616</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44617</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44617</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44618</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44626</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44628</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44628</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44634</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44636</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44638</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44642</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>44643</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35329,7 +35329,7 @@
         <v>44644</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>44648</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>44654</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44655</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44658</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44662</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44662</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35852,7 +35852,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>44664</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44673</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44683</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>44689</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         <v>44693</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44698</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>44699</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44701</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36685,7 +36685,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36799,7 +36799,7 @@
         <v>44720</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36856,7 +36856,7 @@
         <v>44722</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36918,7 +36918,7 @@
         <v>44729</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44729</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44732</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44732</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44733</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44734</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>44746</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>44746</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>44749</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>44755</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37818,7 +37818,7 @@
         <v>44755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37875,7 +37875,7 @@
         <v>44756</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>44763</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>44768</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>44781</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>44781</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>44782</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38279,7 +38279,7 @@
         <v>44783</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38393,7 +38393,7 @@
         <v>44785</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38512,7 +38512,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38569,7 +38569,7 @@
         <v>44792</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38911,7 +38911,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>44804</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>44804</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39139,7 +39139,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39201,7 +39201,7 @@
         <v>44819</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39258,7 +39258,7 @@
         <v>44819</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39315,7 +39315,7 @@
         <v>44825</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>44825</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39491,7 +39491,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39548,7 +39548,7 @@
         <v>44834</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44834</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39662,7 +39662,7 @@
         <v>44837</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>44839</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39781,7 +39781,7 @@
         <v>44842</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39838,7 +39838,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44844</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39952,7 +39952,7 @@
         <v>44844</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40009,7 +40009,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         <v>44851</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         <v>44851</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>44864</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40366,7 +40366,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>44865</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40552,7 +40552,7 @@
         <v>44865</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40614,7 +40614,7 @@
         <v>44871</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40671,7 +40671,7 @@
         <v>44873</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40728,7 +40728,7 @@
         <v>44874</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40785,7 +40785,7 @@
         <v>44874</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40842,7 +40842,7 @@
         <v>44875</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40899,7 +40899,7 @@
         <v>44881</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40956,7 +40956,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41018,7 +41018,7 @@
         <v>44883</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41075,7 +41075,7 @@
         <v>44883</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41132,7 +41132,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41246,7 +41246,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41303,7 +41303,7 @@
         <v>44886</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>44886</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41417,7 +41417,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41474,7 +41474,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41531,7 +41531,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41588,7 +41588,7 @@
         <v>44889</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41645,7 +41645,7 @@
         <v>44889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>44900</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44903</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44903</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44904</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>44909</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>44914</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>44915</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44915</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42334,7 +42334,7 @@
         <v>44917</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44917</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44918</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42505,7 +42505,7 @@
         <v>44918</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44925</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>44928</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         <v>44930</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>44930</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>44942</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44942</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>44946</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>44946</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43246,7 +43246,7 @@
         <v>44953</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>44953</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43370,7 +43370,7 @@
         <v>44955</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43427,7 +43427,7 @@
         <v>44956</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43484,7 +43484,7 @@
         <v>44957</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43541,7 +43541,7 @@
         <v>44959</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43598,7 +43598,7 @@
         <v>44959</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43655,7 +43655,7 @@
         <v>44964</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
         <v>44964</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43769,7 +43769,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         <v>44965</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43883,7 +43883,7 @@
         <v>44965</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43945,7 +43945,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44002,7 +44002,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44059,7 +44059,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44116,7 +44116,7 @@
         <v>44966</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44173,7 +44173,7 @@
         <v>44966</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44230,7 +44230,7 @@
         <v>44978</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44292,7 +44292,7 @@
         <v>44979</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44349,7 +44349,7 @@
         <v>44983</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44406,7 +44406,7 @@
         <v>44985</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44463,7 +44463,7 @@
         <v>44985</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44520,7 +44520,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44582,7 +44582,7 @@
         <v>44998</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44639,7 +44639,7 @@
         <v>44998</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44701,7 +44701,7 @@
         <v>45002</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44763,7 +44763,7 @@
         <v>45004</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44820,7 +44820,7 @@
         <v>45005</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44877,7 +44877,7 @@
         <v>45005</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44934,7 +44934,7 @@
         <v>45006</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44991,7 +44991,7 @@
         <v>45006</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45048,7 +45048,7 @@
         <v>45008</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45105,7 +45105,7 @@
         <v>45014</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45162,7 +45162,7 @@
         <v>45020</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45219,7 +45219,7 @@
         <v>45021</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45276,7 +45276,7 @@
         <v>45028</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45390,7 +45390,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         <v>45036</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45504,7 +45504,7 @@
         <v>45036</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45561,7 +45561,7 @@
         <v>45041</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45618,7 +45618,7 @@
         <v>45041</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45675,7 +45675,7 @@
         <v>45043</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45732,7 +45732,7 @@
         <v>45044</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45789,7 +45789,7 @@
         <v>45044</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>45048</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45903,7 +45903,7 @@
         <v>45049</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45960,7 +45960,7 @@
         <v>45050</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46017,7 +46017,7 @@
         <v>45050</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46074,7 +46074,7 @@
         <v>45054</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46131,7 +46131,7 @@
         <v>45056</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46193,7 +46193,7 @@
         <v>45056</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46255,7 +46255,7 @@
         <v>45057</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46317,7 +46317,7 @@
         <v>45058</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45058</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45063</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45068</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46627,7 +46627,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46751,7 +46751,7 @@
         <v>45077</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46813,7 +46813,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46870,7 +46870,7 @@
         <v>45079</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46927,7 +46927,7 @@
         <v>45086</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47046,7 +47046,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47160,7 +47160,7 @@
         <v>45093</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47217,7 +47217,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47274,7 +47274,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47331,7 +47331,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47388,7 +47388,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47450,7 +47450,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47507,7 +47507,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47569,7 +47569,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47626,7 +47626,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45103</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47916,7 +47916,7 @@
         <v>45106</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47973,7 +47973,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48035,7 +48035,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48216,7 +48216,7 @@
         <v>45107</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48273,7 +48273,7 @@
         <v>45111</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48330,7 +48330,7 @@
         <v>45117</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48387,7 +48387,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48444,7 +48444,7 @@
         <v>45118</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         <v>45119</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48563,7 +48563,7 @@
         <v>45120</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45138</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45140</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45146</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48868,7 +48868,7 @@
         <v>45151</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48925,7 +48925,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48982,7 +48982,7 @@
         <v>45154</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49039,7 +49039,7 @@
         <v>45156</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49096,7 +49096,7 @@
         <v>45159</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45170</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45182</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49277,7 +49277,7 @@
         <v>45183</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49334,7 +49334,7 @@
         <v>45183</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49396,7 +49396,7 @@
         <v>45183</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49453,7 +49453,7 @@
         <v>45183</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44754</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -941,6 +941,7 @@
 Ullticka
 Grön sköldmossa
 Igelkottsröksvamp
+Jättesvampmal
 Mindre märgborre
 Vanlig groda
 Vanlig snok</t>
@@ -981,7 +982,7 @@
         <v>43357</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1074,7 @@
         <v>43816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1166,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1261,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1357,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1447,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1537,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1631,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1724,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1813,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1901,7 +1902,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,7 +1991,7 @@
         <v>45034</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2084,7 @@
         <v>43712</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2177,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2274,7 @@
         <v>44336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2361,7 +2362,7 @@
         <v>44581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2454,7 +2455,7 @@
         <v>44768</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2547,7 +2548,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2640,7 @@
         <v>44953</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2737,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2824,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2915,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3006,7 +3007,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3103,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,7 +3195,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3282,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3377,7 +3378,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3473,7 +3474,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3560,7 +3561,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3651,7 +3652,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3737,7 +3738,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3823,7 +3824,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3909,7 +3910,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3999,7 +4000,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4085,7 +4086,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4176,7 +4177,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4267,7 +4268,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4353,7 +4354,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4439,7 +4440,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4530,7 +4531,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4625,7 +4626,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4716,7 +4717,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4801,7 +4802,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4891,7 +4892,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4980,7 +4981,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5065,7 +5066,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5150,7 +5151,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5235,7 +5236,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5325,7 +5326,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5410,7 +5411,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5495,7 +5496,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5580,7 +5581,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5670,7 +5671,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5755,7 +5756,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5845,7 +5846,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5935,7 +5936,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6025,7 +6026,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6115,7 +6116,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6200,7 +6201,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6285,7 +6286,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6374,7 +6375,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6463,7 +6464,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6548,7 +6549,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6633,7 +6634,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6723,7 +6724,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6813,7 +6814,7 @@
         <v>45063</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6898,7 +6899,7 @@
         <v>45077</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6983,7 +6984,7 @@
         <v>45086</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7073,7 +7074,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7163,7 +7164,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7253,7 +7254,7 @@
         <v>45097</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7343,7 +7344,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7433,7 +7434,7 @@
         <v>45141</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7523,7 +7524,7 @@
         <v>45181</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7613,7 +7614,7 @@
         <v>43353</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7670,7 +7671,7 @@
         <v>43356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7727,7 +7728,7 @@
         <v>43360</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7784,7 +7785,7 @@
         <v>43360</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7841,7 +7842,7 @@
         <v>43388</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7898,7 +7899,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7955,7 +7956,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8012,7 +8013,7 @@
         <v>43396</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8069,7 +8070,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8126,7 +8127,7 @@
         <v>43406</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8183,7 +8184,7 @@
         <v>43406</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8240,7 +8241,7 @@
         <v>43413</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8297,7 +8298,7 @@
         <v>43413</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8354,7 +8355,7 @@
         <v>43418</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8411,7 +8412,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8473,7 +8474,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8535,7 +8536,7 @@
         <v>43426</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8597,7 +8598,7 @@
         <v>43426</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8659,7 +8660,7 @@
         <v>43427</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8716,7 +8717,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8773,7 +8774,7 @@
         <v>43431</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8830,7 +8831,7 @@
         <v>43431</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8887,7 +8888,7 @@
         <v>43439</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8944,7 +8945,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9001,7 +9002,7 @@
         <v>43441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9058,7 +9059,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9115,7 +9116,7 @@
         <v>43445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9172,7 +9173,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9229,7 +9230,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9286,7 +9287,7 @@
         <v>43452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9348,7 +9349,7 @@
         <v>43455</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9405,7 +9406,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9462,7 +9463,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9519,7 +9520,7 @@
         <v>43461</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9576,7 +9577,7 @@
         <v>43464</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9638,7 +9639,7 @@
         <v>43464</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9700,7 +9701,7 @@
         <v>43466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9757,7 +9758,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9819,7 +9820,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9881,7 +9882,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9938,7 +9939,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9995,7 +9996,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10052,7 +10053,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10109,7 +10110,7 @@
         <v>43474</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10166,7 +10167,7 @@
         <v>43475</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10223,7 +10224,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10280,7 +10281,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10337,7 +10338,7 @@
         <v>43480</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10394,7 +10395,7 @@
         <v>43486</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10451,7 +10452,7 @@
         <v>43489</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10508,7 +10509,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10565,7 +10566,7 @@
         <v>43493</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10622,7 +10623,7 @@
         <v>43494</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10679,7 +10680,7 @@
         <v>43496</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10736,7 +10737,7 @@
         <v>43496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10793,7 +10794,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10850,7 +10851,7 @@
         <v>43507</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10907,7 +10908,7 @@
         <v>43507</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10964,7 +10965,7 @@
         <v>43509</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11021,7 +11022,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11078,7 +11079,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11135,7 +11136,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11192,7 +11193,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11249,7 +11250,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11306,7 +11307,7 @@
         <v>43521</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11363,7 +11364,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11425,7 +11426,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11487,7 +11488,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11544,7 +11545,7 @@
         <v>43524</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11601,7 +11602,7 @@
         <v>43524</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11663,7 +11664,7 @@
         <v>43526</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11720,7 +11721,7 @@
         <v>43528</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11777,7 +11778,7 @@
         <v>43530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11839,7 +11840,7 @@
         <v>43530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11896,7 +11897,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11953,7 +11954,7 @@
         <v>43537</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12010,7 +12011,7 @@
         <v>43538</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12072,7 +12073,7 @@
         <v>43539</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12129,7 +12130,7 @@
         <v>43539</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12186,7 +12187,7 @@
         <v>43542</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12243,7 +12244,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12300,7 +12301,7 @@
         <v>43557</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12357,7 +12358,7 @@
         <v>43558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12414,7 +12415,7 @@
         <v>43558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12471,7 +12472,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12528,7 +12529,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12585,7 +12586,7 @@
         <v>43559</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12642,7 +12643,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12699,7 +12700,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12756,7 +12757,7 @@
         <v>43565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12813,7 +12814,7 @@
         <v>43570</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12875,7 +12876,7 @@
         <v>43580</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12937,7 +12938,7 @@
         <v>43580</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12994,7 +12995,7 @@
         <v>43585</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13056,7 +13057,7 @@
         <v>43595</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13113,7 +13114,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13175,7 +13176,7 @@
         <v>43619</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13232,7 +13233,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13289,7 +13290,7 @@
         <v>43629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13346,7 +13347,7 @@
         <v>43629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13408,7 +13409,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13465,7 +13466,7 @@
         <v>43643</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13522,7 +13523,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13584,7 +13585,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13646,7 +13647,7 @@
         <v>43656</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13703,7 +13704,7 @@
         <v>43662</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13760,7 +13761,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13817,7 +13818,7 @@
         <v>43667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13874,7 +13875,7 @@
         <v>43667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13931,7 +13932,7 @@
         <v>43677</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13988,7 +13989,7 @@
         <v>43678</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14045,7 +14046,7 @@
         <v>43679</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14102,7 +14103,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14159,7 +14160,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14216,7 +14217,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14273,7 +14274,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14330,7 +14331,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14387,7 +14388,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14444,7 +14445,7 @@
         <v>43684</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14501,7 +14502,7 @@
         <v>43685</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14558,7 +14559,7 @@
         <v>43690</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14615,7 +14616,7 @@
         <v>43690</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14672,7 +14673,7 @@
         <v>43693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14729,7 +14730,7 @@
         <v>43693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14786,7 +14787,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14843,7 +14844,7 @@
         <v>43696</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14900,7 +14901,7 @@
         <v>43696</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14957,7 +14958,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15014,7 +15015,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15071,7 +15072,7 @@
         <v>43705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15128,7 +15129,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15185,7 +15186,7 @@
         <v>43706</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15242,7 +15243,7 @@
         <v>43712</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15299,7 +15300,7 @@
         <v>43712</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15356,7 +15357,7 @@
         <v>43713</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15413,7 +15414,7 @@
         <v>43721</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15470,7 +15471,7 @@
         <v>43728</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15532,7 +15533,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15589,7 +15590,7 @@
         <v>43732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15646,7 +15647,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15708,7 +15709,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15765,7 +15766,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15822,7 +15823,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15879,7 +15880,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15936,7 +15937,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15993,7 +15994,7 @@
         <v>43752</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16050,7 +16051,7 @@
         <v>43754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16107,7 +16108,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16169,7 +16170,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16226,7 +16227,7 @@
         <v>43762</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16283,7 +16284,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16340,7 +16341,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16397,7 +16398,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16459,7 +16460,7 @@
         <v>43768</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16521,7 +16522,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16583,7 +16584,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16640,7 +16641,7 @@
         <v>43771</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16697,7 +16698,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16754,7 +16755,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16811,7 +16812,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16873,7 +16874,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16935,7 +16936,7 @@
         <v>43781</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16992,7 +16993,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17049,7 +17050,7 @@
         <v>43784</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17111,7 +17112,7 @@
         <v>43787</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17168,7 +17169,7 @@
         <v>43787</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17225,7 +17226,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17282,7 +17283,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17339,7 +17340,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17396,7 +17397,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17453,7 +17454,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17510,7 +17511,7 @@
         <v>43788</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17567,7 +17568,7 @@
         <v>43788</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17624,7 +17625,7 @@
         <v>43789</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17681,7 +17682,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17738,7 +17739,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17795,7 +17796,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17852,7 +17853,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17910,7 @@
         <v>43791</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17966,7 +17967,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18028,7 +18029,7 @@
         <v>43795</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18090,7 +18091,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18152,7 +18153,7 @@
         <v>43797</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18209,7 +18210,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18266,7 +18267,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18323,7 +18324,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18385,7 +18386,7 @@
         <v>43804</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18442,7 +18443,7 @@
         <v>43804</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18499,7 +18500,7 @@
         <v>43805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18556,7 +18557,7 @@
         <v>43805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18613,7 +18614,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18670,7 +18671,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18727,7 +18728,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18784,7 +18785,7 @@
         <v>43808</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18841,7 +18842,7 @@
         <v>43808</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18898,7 +18899,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18955,7 +18956,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19012,7 +19013,7 @@
         <v>43812</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19069,7 +19070,7 @@
         <v>43812</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19126,7 +19127,7 @@
         <v>43816</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19183,7 +19184,7 @@
         <v>43844</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19240,7 +19241,7 @@
         <v>43845</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19297,7 +19298,7 @@
         <v>43846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19359,7 +19360,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19416,7 +19417,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19473,7 +19474,7 @@
         <v>43848</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19530,7 +19531,7 @@
         <v>43850</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19592,7 +19593,7 @@
         <v>43850</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19649,7 +19650,7 @@
         <v>43851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19706,7 +19707,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19763,7 +19764,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19820,7 +19821,7 @@
         <v>43853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19877,7 +19878,7 @@
         <v>43853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19934,7 +19935,7 @@
         <v>43859</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19996,7 +19997,7 @@
         <v>43860</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20053,7 +20054,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20110,7 +20111,7 @@
         <v>43866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20167,7 +20168,7 @@
         <v>43885</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20224,7 +20225,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20281,7 +20282,7 @@
         <v>43896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20338,7 +20339,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20400,7 +20401,7 @@
         <v>43903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20457,7 +20458,7 @@
         <v>43908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20514,7 +20515,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20571,7 +20572,7 @@
         <v>43921</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20628,7 +20629,7 @@
         <v>43921</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20685,7 +20686,7 @@
         <v>43937</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20742,7 +20743,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20799,7 +20800,7 @@
         <v>43938</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20856,7 +20857,7 @@
         <v>43938</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20913,7 +20914,7 @@
         <v>43941</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20970,7 +20971,7 @@
         <v>43962</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21032,7 +21033,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21089,7 +21090,7 @@
         <v>43966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21146,7 +21147,7 @@
         <v>43966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21203,7 +21204,7 @@
         <v>43985</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21260,7 +21261,7 @@
         <v>43985</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21317,7 +21318,7 @@
         <v>43986</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21374,7 +21375,7 @@
         <v>43986</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21431,7 +21432,7 @@
         <v>43992</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21488,7 +21489,7 @@
         <v>43992</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21545,7 +21546,7 @@
         <v>43997</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21607,7 +21608,7 @@
         <v>43997</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21669,7 +21670,7 @@
         <v>44000</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21726,7 +21727,7 @@
         <v>44000</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21783,7 +21784,7 @@
         <v>44006</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21840,7 +21841,7 @@
         <v>44013</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21902,7 +21903,7 @@
         <v>44014</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21964,7 +21965,7 @@
         <v>44019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22021,7 +22022,7 @@
         <v>44035</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22078,7 +22079,7 @@
         <v>44039</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22135,7 +22136,7 @@
         <v>44041</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22192,7 +22193,7 @@
         <v>44042</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22249,7 +22250,7 @@
         <v>44042</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22306,7 +22307,7 @@
         <v>44048</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22363,7 +22364,7 @@
         <v>44048</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22420,7 +22421,7 @@
         <v>44055</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22477,7 +22478,7 @@
         <v>44055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22534,7 +22535,7 @@
         <v>44060</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22591,7 +22592,7 @@
         <v>44068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22648,7 +22649,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22705,7 +22706,7 @@
         <v>44069</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22762,7 +22763,7 @@
         <v>44069</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22819,7 +22820,7 @@
         <v>44070</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22876,7 +22877,7 @@
         <v>44074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22938,7 +22939,7 @@
         <v>44075</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22995,7 +22996,7 @@
         <v>44081</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23052,7 +23053,7 @@
         <v>44085</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23114,7 +23115,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23171,7 +23172,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23228,7 +23229,7 @@
         <v>44089</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23285,7 +23286,7 @@
         <v>44090</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23342,7 +23343,7 @@
         <v>44094</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23404,7 +23405,7 @@
         <v>44096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23461,7 +23462,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23518,7 +23519,7 @@
         <v>44099</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23575,7 +23576,7 @@
         <v>44099</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23632,7 +23633,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23709,7 +23710,7 @@
         <v>44105</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23766,7 +23767,7 @@
         <v>44105</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23823,7 +23824,7 @@
         <v>44109</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23880,7 +23881,7 @@
         <v>44120</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23937,7 +23938,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23994,7 +23995,7 @@
         <v>44130</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24056,7 +24057,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24118,7 +24119,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24175,7 +24176,7 @@
         <v>44132</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24237,7 +24238,7 @@
         <v>44132</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24299,7 +24300,7 @@
         <v>44134</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24356,7 +24357,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24413,7 +24414,7 @@
         <v>44139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24475,7 +24476,7 @@
         <v>44140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24537,7 +24538,7 @@
         <v>44144</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24594,7 +24595,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24651,7 +24652,7 @@
         <v>44145</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24708,7 +24709,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24765,7 +24766,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24822,7 +24823,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24884,7 +24885,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24941,7 +24942,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24998,7 +24999,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25060,7 +25061,7 @@
         <v>44155</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25117,7 +25118,7 @@
         <v>44165</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25179,7 +25180,7 @@
         <v>44166</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25236,7 +25237,7 @@
         <v>44167</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25293,7 +25294,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25350,7 +25351,7 @@
         <v>44172</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25407,7 +25408,7 @@
         <v>44172</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25464,7 +25465,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25521,7 +25522,7 @@
         <v>44174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25578,7 +25579,7 @@
         <v>44174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25635,7 +25636,7 @@
         <v>44175</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25692,7 +25693,7 @@
         <v>44176</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25749,7 +25750,7 @@
         <v>44180</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25806,7 +25807,7 @@
         <v>44188</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25863,7 +25864,7 @@
         <v>44194</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25920,7 +25921,7 @@
         <v>44203</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25982,7 +25983,7 @@
         <v>44203</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26044,7 +26045,7 @@
         <v>44209</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26106,7 +26107,7 @@
         <v>44209</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26168,7 +26169,7 @@
         <v>44211</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26225,7 +26226,7 @@
         <v>44211</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26282,7 +26283,7 @@
         <v>44214</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26339,7 +26340,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26401,7 +26402,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26458,7 +26459,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26515,7 +26516,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26572,7 +26573,7 @@
         <v>44221</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26629,7 +26630,7 @@
         <v>44224</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26686,7 +26687,7 @@
         <v>44230</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26743,7 +26744,7 @@
         <v>44238</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26805,7 +26806,7 @@
         <v>44238</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26867,7 +26868,7 @@
         <v>44239</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26929,7 +26930,7 @@
         <v>44239</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26986,7 +26987,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27048,7 +27049,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27110,7 +27111,7 @@
         <v>44245</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27172,7 +27173,7 @@
         <v>44245</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27234,7 +27235,7 @@
         <v>44250</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27291,7 +27292,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27348,7 +27349,7 @@
         <v>44251</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27405,7 +27406,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27462,7 +27463,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27519,7 +27520,7 @@
         <v>44262</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27576,7 +27577,7 @@
         <v>44262</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27633,7 +27634,7 @@
         <v>44280</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27690,7 +27691,7 @@
         <v>44284</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27747,7 +27748,7 @@
         <v>44285</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27804,7 +27805,7 @@
         <v>44295</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27866,7 +27867,7 @@
         <v>44298</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27923,7 +27924,7 @@
         <v>44306</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27980,7 +27981,7 @@
         <v>44307</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28037,7 +28038,7 @@
         <v>44308</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28094,7 +28095,7 @@
         <v>44312</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28151,7 +28152,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28208,7 +28209,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28270,7 +28271,7 @@
         <v>44328</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28327,7 +28328,7 @@
         <v>44329</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28384,7 +28385,7 @@
         <v>44333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28446,7 +28447,7 @@
         <v>44336</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28503,7 +28504,7 @@
         <v>44350</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28560,7 +28561,7 @@
         <v>44355</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28617,7 +28618,7 @@
         <v>44355</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28674,7 +28675,7 @@
         <v>44362</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28736,7 +28737,7 @@
         <v>44362</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28793,7 +28794,7 @@
         <v>44368</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28855,7 +28856,7 @@
         <v>44379</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28912,7 +28913,7 @@
         <v>44403</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28969,7 +28970,7 @@
         <v>44405</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29026,7 +29027,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29083,7 +29084,7 @@
         <v>44410</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29140,7 +29141,7 @@
         <v>44410</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29197,7 +29198,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29254,7 +29255,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29311,7 +29312,7 @@
         <v>44426</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29368,7 +29369,7 @@
         <v>44426</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29425,7 +29426,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29487,7 +29488,7 @@
         <v>44431</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29544,7 +29545,7 @@
         <v>44431</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29601,7 +29602,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29658,7 +29659,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29715,7 +29716,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29772,7 +29773,7 @@
         <v>44432</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29829,7 +29830,7 @@
         <v>44432</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29886,7 +29887,7 @@
         <v>44434</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29943,7 +29944,7 @@
         <v>44435</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30000,7 +30001,7 @@
         <v>44441</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30062,7 +30063,7 @@
         <v>44441</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30119,7 +30120,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30181,7 +30182,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30243,7 +30244,7 @@
         <v>44449</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30305,7 +30306,7 @@
         <v>44449</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30367,7 +30368,7 @@
         <v>44452</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30424,7 +30425,7 @@
         <v>44452</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30481,7 +30482,7 @@
         <v>44453</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30538,7 +30539,7 @@
         <v>44454</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30595,7 +30596,7 @@
         <v>44455</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30652,7 +30653,7 @@
         <v>44461</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30709,7 +30710,7 @@
         <v>44467</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30766,7 +30767,7 @@
         <v>44467</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30823,7 +30824,7 @@
         <v>44468</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30880,7 +30881,7 @@
         <v>44468</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30937,7 +30938,7 @@
         <v>44469</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30999,7 +31000,7 @@
         <v>44469</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31056,7 +31057,7 @@
         <v>44470</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31113,7 +31114,7 @@
         <v>44473</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31170,7 +31171,7 @@
         <v>44473</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31227,7 +31228,7 @@
         <v>44483</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31289,7 +31290,7 @@
         <v>44484</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31351,7 +31352,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31408,7 +31409,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31465,7 +31466,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31522,7 +31523,7 @@
         <v>44490</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31579,7 +31580,7 @@
         <v>44490</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31636,7 +31637,7 @@
         <v>44494</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31693,7 +31694,7 @@
         <v>44495</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31750,7 +31751,7 @@
         <v>44497</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31807,7 +31808,7 @@
         <v>44497</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31864,7 +31865,7 @@
         <v>44499</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31921,7 +31922,7 @@
         <v>44499</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31978,7 +31979,7 @@
         <v>44503</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32035,7 +32036,7 @@
         <v>44510</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32092,7 +32093,7 @@
         <v>44515</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32154,7 +32155,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32211,7 +32212,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32268,7 +32269,7 @@
         <v>44516</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32325,7 +32326,7 @@
         <v>44516</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32382,7 +32383,7 @@
         <v>44522</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32444,7 +32445,7 @@
         <v>44524</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32501,7 +32502,7 @@
         <v>44524</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32558,7 +32559,7 @@
         <v>44525</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32615,7 +32616,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32672,7 +32673,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32729,7 +32730,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32786,7 +32787,7 @@
         <v>44533</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32843,7 +32844,7 @@
         <v>44533</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32900,7 +32901,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32957,7 +32958,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33014,7 +33015,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33071,7 +33072,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33128,7 +33129,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33185,7 +33186,7 @@
         <v>44536</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33242,7 +33243,7 @@
         <v>44536</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33299,7 +33300,7 @@
         <v>44537</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33356,7 +33357,7 @@
         <v>44544</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33413,7 +33414,7 @@
         <v>44544</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33470,7 +33471,7 @@
         <v>44550</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33527,7 +33528,7 @@
         <v>44573</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33584,7 +33585,7 @@
         <v>44582</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33641,7 +33642,7 @@
         <v>44585</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33698,7 +33699,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33755,7 +33756,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33812,7 +33813,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33874,7 +33875,7 @@
         <v>44588</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33931,7 +33932,7 @@
         <v>44588</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33993,7 +33994,7 @@
         <v>44592</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34050,7 +34051,7 @@
         <v>44593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34107,7 +34108,7 @@
         <v>44594</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34169,7 +34170,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34231,7 +34232,7 @@
         <v>44606</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34293,7 +34294,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34355,7 +34356,7 @@
         <v>44608</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34412,7 +34413,7 @@
         <v>44608</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34469,7 +34470,7 @@
         <v>44610</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34526,7 +34527,7 @@
         <v>44613</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34583,7 +34584,7 @@
         <v>44616</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34640,7 +34641,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34697,7 +34698,7 @@
         <v>44617</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34754,7 +34755,7 @@
         <v>44617</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34811,7 +34812,7 @@
         <v>44618</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34868,7 +34869,7 @@
         <v>44626</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34925,7 +34926,7 @@
         <v>44628</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34982,7 +34983,7 @@
         <v>44628</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35039,7 +35040,7 @@
         <v>44634</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35096,7 +35097,7 @@
         <v>44636</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35153,7 +35154,7 @@
         <v>44638</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35210,7 +35211,7 @@
         <v>44642</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35272,7 +35273,7 @@
         <v>44643</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35329,7 +35330,7 @@
         <v>44644</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35386,7 +35387,7 @@
         <v>44648</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35443,7 +35444,7 @@
         <v>44654</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35500,7 +35501,7 @@
         <v>44655</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35562,7 +35563,7 @@
         <v>44658</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35624,7 +35625,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35681,7 +35682,7 @@
         <v>44662</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35738,7 +35739,7 @@
         <v>44662</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35795,7 +35796,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35852,7 +35853,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35914,7 +35915,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35976,7 +35977,7 @@
         <v>44664</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36038,7 +36039,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36095,7 +36096,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36152,7 +36153,7 @@
         <v>44673</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36209,7 +36210,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36266,7 +36267,7 @@
         <v>44683</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36323,7 +36324,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36385,7 +36386,7 @@
         <v>44689</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36442,7 +36443,7 @@
         <v>44693</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36504,7 +36505,7 @@
         <v>44698</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36566,7 +36567,7 @@
         <v>44699</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36628,7 +36629,7 @@
         <v>44701</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36685,7 +36686,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36742,7 +36743,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36799,7 +36800,7 @@
         <v>44720</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36856,7 +36857,7 @@
         <v>44722</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36918,7 +36919,7 @@
         <v>44729</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36980,7 +36981,7 @@
         <v>44729</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37042,7 +37043,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37104,7 +37105,7 @@
         <v>44732</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37166,7 +37167,7 @@
         <v>44732</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37223,7 +37224,7 @@
         <v>44733</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37280,7 +37281,7 @@
         <v>44734</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37337,7 +37338,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37394,7 +37395,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37471,7 +37472,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37533,7 +37534,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37590,7 +37591,7 @@
         <v>44746</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37647,7 +37648,7 @@
         <v>44746</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37704,7 +37705,7 @@
         <v>44749</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37761,7 +37762,7 @@
         <v>44755</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37818,7 +37819,7 @@
         <v>44755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37875,7 +37876,7 @@
         <v>44756</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37932,7 +37933,7 @@
         <v>44763</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37989,7 +37990,7 @@
         <v>44768</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38051,7 +38052,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38108,7 +38109,7 @@
         <v>44781</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38165,7 +38166,7 @@
         <v>44781</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38222,7 +38223,7 @@
         <v>44782</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38279,7 +38280,7 @@
         <v>44783</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38336,7 +38337,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38393,7 +38394,7 @@
         <v>44785</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38455,7 +38456,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38512,7 +38513,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38569,7 +38570,7 @@
         <v>44792</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38626,7 +38627,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38683,7 +38684,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38740,7 +38741,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38797,7 +38798,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38854,7 +38855,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38911,7 +38912,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38968,7 +38969,7 @@
         <v>44804</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39025,7 +39026,7 @@
         <v>44804</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39082,7 +39083,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39139,7 +39140,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39201,7 +39202,7 @@
         <v>44819</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39258,7 +39259,7 @@
         <v>44819</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39315,7 +39316,7 @@
         <v>44825</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39372,7 +39373,7 @@
         <v>44825</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39434,7 +39435,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39491,7 +39492,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39548,7 +39549,7 @@
         <v>44834</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39605,7 +39606,7 @@
         <v>44834</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39662,7 +39663,7 @@
         <v>44837</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39724,7 +39725,7 @@
         <v>44839</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39781,7 +39782,7 @@
         <v>44842</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39838,7 +39839,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39895,7 +39896,7 @@
         <v>44844</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39952,7 +39953,7 @@
         <v>44844</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40009,7 +40010,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40066,7 +40067,7 @@
         <v>44851</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40123,7 +40124,7 @@
         <v>44851</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40180,7 +40181,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40242,7 +40243,7 @@
         <v>44864</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40304,7 +40305,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40366,7 +40367,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40428,7 +40429,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40490,7 +40491,7 @@
         <v>44865</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40552,7 +40553,7 @@
         <v>44865</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40614,7 +40615,7 @@
         <v>44871</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40671,7 +40672,7 @@
         <v>44873</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40728,7 +40729,7 @@
         <v>44874</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40785,7 +40786,7 @@
         <v>44874</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40842,7 +40843,7 @@
         <v>44875</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40899,7 +40900,7 @@
         <v>44881</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40956,7 +40957,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41018,7 +41019,7 @@
         <v>44883</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41075,7 +41076,7 @@
         <v>44883</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41132,7 +41133,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41189,7 +41190,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41246,7 +41247,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41303,7 +41304,7 @@
         <v>44886</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41360,7 +41361,7 @@
         <v>44886</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41417,7 +41418,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41474,7 +41475,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41531,7 +41532,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41588,7 +41589,7 @@
         <v>44889</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41645,7 +41646,7 @@
         <v>44889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41702,7 +41703,7 @@
         <v>44900</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41759,7 +41760,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41816,7 +41817,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41873,7 +41874,7 @@
         <v>44903</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41930,7 +41931,7 @@
         <v>44903</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41987,7 +41988,7 @@
         <v>44904</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42049,7 +42050,7 @@
         <v>44909</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42106,7 +42107,7 @@
         <v>44914</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42163,7 +42164,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42220,7 +42221,7 @@
         <v>44915</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42277,7 +42278,7 @@
         <v>44915</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42334,7 +42335,7 @@
         <v>44917</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42391,7 +42392,7 @@
         <v>44917</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42448,7 +42449,7 @@
         <v>44918</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42505,7 +42506,7 @@
         <v>44918</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42562,7 +42563,7 @@
         <v>44925</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42619,7 +42620,7 @@
         <v>44928</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42676,7 +42677,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42733,7 +42734,7 @@
         <v>44930</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42790,7 +42791,7 @@
         <v>44930</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42847,7 +42848,7 @@
         <v>44942</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42904,7 +42905,7 @@
         <v>44942</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42961,7 +42962,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43018,7 +43019,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43075,7 +43076,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43132,7 +43133,7 @@
         <v>44946</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43189,7 +43190,7 @@
         <v>44946</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43246,7 +43247,7 @@
         <v>44953</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43308,7 +43309,7 @@
         <v>44953</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43370,7 +43371,7 @@
         <v>44955</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43427,7 +43428,7 @@
         <v>44956</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43484,7 +43485,7 @@
         <v>44957</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43541,7 +43542,7 @@
         <v>44959</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43598,7 +43599,7 @@
         <v>44959</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43655,7 +43656,7 @@
         <v>44964</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43712,7 +43713,7 @@
         <v>44964</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43769,7 +43770,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43826,7 +43827,7 @@
         <v>44965</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43883,7 +43884,7 @@
         <v>44965</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43945,7 +43946,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44002,7 +44003,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44059,7 +44060,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44116,7 +44117,7 @@
         <v>44966</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44173,7 +44174,7 @@
         <v>44966</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44230,7 +44231,7 @@
         <v>44978</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44292,7 +44293,7 @@
         <v>44979</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44349,7 +44350,7 @@
         <v>44983</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44406,7 +44407,7 @@
         <v>44985</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44463,7 +44464,7 @@
         <v>44985</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44520,7 +44521,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44582,7 +44583,7 @@
         <v>44998</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44639,7 +44640,7 @@
         <v>44998</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44701,7 +44702,7 @@
         <v>45002</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44763,7 +44764,7 @@
         <v>45004</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44820,7 +44821,7 @@
         <v>45005</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44877,7 +44878,7 @@
         <v>45005</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44934,7 +44935,7 @@
         <v>45006</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44991,7 +44992,7 @@
         <v>45006</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45048,7 +45049,7 @@
         <v>45008</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45105,7 +45106,7 @@
         <v>45014</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45162,7 +45163,7 @@
         <v>45020</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45219,7 +45220,7 @@
         <v>45021</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45276,7 +45277,7 @@
         <v>45028</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45333,7 +45334,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45390,7 +45391,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45447,7 +45448,7 @@
         <v>45036</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45504,7 +45505,7 @@
         <v>45036</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45561,7 +45562,7 @@
         <v>45041</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45618,7 +45619,7 @@
         <v>45041</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45675,7 +45676,7 @@
         <v>45043</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45732,7 +45733,7 @@
         <v>45044</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45789,7 +45790,7 @@
         <v>45044</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45846,7 +45847,7 @@
         <v>45048</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45903,7 +45904,7 @@
         <v>45049</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45960,7 +45961,7 @@
         <v>45050</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46017,7 +46018,7 @@
         <v>45050</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46074,7 +46075,7 @@
         <v>45054</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46131,7 +46132,7 @@
         <v>45056</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46193,7 +46194,7 @@
         <v>45056</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46255,7 +46256,7 @@
         <v>45057</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46317,7 +46318,7 @@
         <v>45058</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46394,7 +46395,7 @@
         <v>45058</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46451,7 +46452,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46513,7 +46514,7 @@
         <v>45063</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46570,7 +46571,7 @@
         <v>45068</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46627,7 +46628,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46689,7 +46690,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46751,7 +46752,7 @@
         <v>45077</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46813,7 +46814,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46870,7 +46871,7 @@
         <v>45079</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46927,7 +46928,7 @@
         <v>45086</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46989,7 +46990,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47046,7 +47047,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47103,7 +47104,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47160,7 +47161,7 @@
         <v>45093</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47217,7 +47218,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47274,7 +47275,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47331,7 +47332,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47388,7 +47389,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47450,7 +47451,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47507,7 +47508,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47569,7 +47570,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47626,7 +47627,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47683,7 +47684,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47740,7 +47741,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47802,7 +47803,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47859,7 +47860,7 @@
         <v>45103</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47916,7 +47917,7 @@
         <v>45106</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47973,7 +47974,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48035,7 +48036,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48097,7 +48098,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48154,7 +48155,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48216,7 +48217,7 @@
         <v>45107</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48273,7 +48274,7 @@
         <v>45111</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48330,7 +48331,7 @@
         <v>45117</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48387,7 +48388,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48444,7 +48445,7 @@
         <v>45118</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48501,7 +48502,7 @@
         <v>45119</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48563,7 +48564,7 @@
         <v>45120</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48625,7 +48626,7 @@
         <v>45138</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48682,7 +48683,7 @@
         <v>45140</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48744,7 +48745,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48806,7 +48807,7 @@
         <v>45146</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48868,7 +48869,7 @@
         <v>45151</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48925,7 +48926,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48982,7 +48983,7 @@
         <v>45154</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49039,7 +49040,7 @@
         <v>45156</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49096,7 +49097,7 @@
         <v>45159</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49158,7 +49159,7 @@
         <v>45170</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49215,7 +49216,7 @@
         <v>45182</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49277,7 +49278,7 @@
         <v>45183</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49334,7 +49335,7 @@
         <v>45183</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49396,7 +49397,7 @@
         <v>45183</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49453,7 +49454,7 @@
         <v>45183</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44754</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -925,19 +925,20 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Leptoporus erubescens
 Spillkråka
 Talltita
+Tvåtandad spolsnäcka
 Ullticka
 Grön sköldmossa
 Igelkottsröksvamp
@@ -982,7 +983,7 @@
         <v>43357</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1075,7 @@
         <v>43816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1167,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1262,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1358,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1447,7 +1448,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1538,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1632,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1725,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1814,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1902,7 +1903,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1992,7 @@
         <v>45034</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2085,7 @@
         <v>43712</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2177,7 +2178,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2274,7 +2275,7 @@
         <v>44336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,7 +2363,7 @@
         <v>44581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2456,7 @@
         <v>44768</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2549,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2640,7 +2641,7 @@
         <v>44953</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2737,7 +2738,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2824,7 +2825,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2916,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3007,7 +3008,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3104,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3196,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3282,7 +3283,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3378,7 +3379,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3474,7 +3475,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3561,7 +3562,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3652,7 +3653,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3738,7 +3739,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3824,7 +3825,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3910,7 +3911,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4000,7 +4001,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4086,7 +4087,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4177,7 +4178,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4268,7 +4269,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4354,7 +4355,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4440,7 +4441,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4531,7 +4532,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4626,7 +4627,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4717,7 +4718,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4802,7 +4803,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4892,7 +4893,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4981,7 +4982,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5066,7 +5067,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5151,7 +5152,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5236,7 +5237,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5326,7 +5327,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5411,7 +5412,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5496,7 +5497,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5581,7 +5582,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5671,7 +5672,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5756,7 +5757,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5846,7 +5847,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5936,7 +5937,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6026,7 +6027,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6116,7 +6117,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6202,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6286,7 +6287,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6375,7 +6376,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6464,7 +6465,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6549,7 +6550,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6634,7 +6635,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6724,7 +6725,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6814,7 +6815,7 @@
         <v>45063</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6899,7 +6900,7 @@
         <v>45077</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6984,7 +6985,7 @@
         <v>45086</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7074,7 +7075,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7164,7 +7165,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7254,7 +7255,7 @@
         <v>45097</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7344,7 +7345,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7434,7 +7435,7 @@
         <v>45141</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7524,7 +7525,7 @@
         <v>45181</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7614,7 +7615,7 @@
         <v>43353</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7671,7 +7672,7 @@
         <v>43356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7728,7 +7729,7 @@
         <v>43360</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7785,7 +7786,7 @@
         <v>43360</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7842,7 +7843,7 @@
         <v>43388</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7899,7 +7900,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7956,7 +7957,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8013,7 +8014,7 @@
         <v>43396</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8070,7 +8071,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8127,7 +8128,7 @@
         <v>43406</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8184,7 +8185,7 @@
         <v>43406</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8241,7 +8242,7 @@
         <v>43413</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8298,7 +8299,7 @@
         <v>43413</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8355,7 +8356,7 @@
         <v>43418</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8412,7 +8413,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8474,7 +8475,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8536,7 +8537,7 @@
         <v>43426</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8598,7 +8599,7 @@
         <v>43426</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8660,7 +8661,7 @@
         <v>43427</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8717,7 +8718,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8774,7 +8775,7 @@
         <v>43431</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8831,7 +8832,7 @@
         <v>43431</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8888,7 +8889,7 @@
         <v>43439</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8945,7 +8946,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9002,7 +9003,7 @@
         <v>43441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9059,7 +9060,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9116,7 +9117,7 @@
         <v>43445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9173,7 +9174,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9230,7 +9231,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9287,7 +9288,7 @@
         <v>43452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9349,7 +9350,7 @@
         <v>43455</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9406,7 +9407,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9463,7 +9464,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9520,7 +9521,7 @@
         <v>43461</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9577,7 +9578,7 @@
         <v>43464</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9639,7 +9640,7 @@
         <v>43464</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9701,7 +9702,7 @@
         <v>43466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9758,7 +9759,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9820,7 +9821,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9882,7 +9883,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9939,7 +9940,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9996,7 +9997,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10053,7 +10054,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10110,7 +10111,7 @@
         <v>43474</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10167,7 +10168,7 @@
         <v>43475</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10224,7 +10225,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10281,7 +10282,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10338,7 +10339,7 @@
         <v>43480</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10395,7 +10396,7 @@
         <v>43486</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10452,7 +10453,7 @@
         <v>43489</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10509,7 +10510,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10566,7 +10567,7 @@
         <v>43493</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10623,7 +10624,7 @@
         <v>43494</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10680,7 +10681,7 @@
         <v>43496</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10737,7 +10738,7 @@
         <v>43496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10794,7 +10795,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10851,7 +10852,7 @@
         <v>43507</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10908,7 +10909,7 @@
         <v>43507</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10965,7 +10966,7 @@
         <v>43509</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11022,7 +11023,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11079,7 +11080,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11136,7 +11137,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11193,7 +11194,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11250,7 +11251,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11307,7 +11308,7 @@
         <v>43521</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11364,7 +11365,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11426,7 +11427,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11488,7 +11489,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11545,7 +11546,7 @@
         <v>43524</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11602,7 +11603,7 @@
         <v>43524</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11664,7 +11665,7 @@
         <v>43526</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11721,7 +11722,7 @@
         <v>43528</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11778,7 +11779,7 @@
         <v>43530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11840,7 +11841,7 @@
         <v>43530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11897,7 +11898,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11954,7 +11955,7 @@
         <v>43537</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12011,7 +12012,7 @@
         <v>43538</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12073,7 +12074,7 @@
         <v>43539</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12130,7 +12131,7 @@
         <v>43539</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12187,7 +12188,7 @@
         <v>43542</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12244,7 +12245,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12301,7 +12302,7 @@
         <v>43557</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12358,7 +12359,7 @@
         <v>43558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12415,7 +12416,7 @@
         <v>43558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12472,7 +12473,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12529,7 +12530,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12586,7 +12587,7 @@
         <v>43559</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12643,7 +12644,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12700,7 +12701,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12757,7 +12758,7 @@
         <v>43565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12814,7 +12815,7 @@
         <v>43570</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12876,7 +12877,7 @@
         <v>43580</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12938,7 +12939,7 @@
         <v>43580</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12995,7 +12996,7 @@
         <v>43585</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13057,7 +13058,7 @@
         <v>43595</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13114,7 +13115,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13176,7 +13177,7 @@
         <v>43619</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13233,7 +13234,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13290,7 +13291,7 @@
         <v>43629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13347,7 +13348,7 @@
         <v>43629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13409,7 +13410,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13466,7 +13467,7 @@
         <v>43643</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13523,7 +13524,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13585,7 +13586,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13647,7 +13648,7 @@
         <v>43656</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13704,7 +13705,7 @@
         <v>43662</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13761,7 +13762,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13818,7 +13819,7 @@
         <v>43667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13875,7 +13876,7 @@
         <v>43667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13932,7 +13933,7 @@
         <v>43677</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13989,7 +13990,7 @@
         <v>43678</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14046,7 +14047,7 @@
         <v>43679</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14103,7 +14104,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14160,7 +14161,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14217,7 +14218,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14274,7 +14275,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14331,7 +14332,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14388,7 +14389,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14445,7 +14446,7 @@
         <v>43684</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14502,7 +14503,7 @@
         <v>43685</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14559,7 +14560,7 @@
         <v>43690</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14616,7 +14617,7 @@
         <v>43690</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14673,7 +14674,7 @@
         <v>43693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14730,7 +14731,7 @@
         <v>43693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14787,7 +14788,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14844,7 +14845,7 @@
         <v>43696</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14901,7 +14902,7 @@
         <v>43696</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14958,7 +14959,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15015,7 +15016,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15072,7 +15073,7 @@
         <v>43705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15129,7 +15130,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15186,7 +15187,7 @@
         <v>43706</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15243,7 +15244,7 @@
         <v>43712</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15300,7 +15301,7 @@
         <v>43712</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15357,7 +15358,7 @@
         <v>43713</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15414,7 +15415,7 @@
         <v>43721</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15471,7 +15472,7 @@
         <v>43728</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15533,7 +15534,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15590,7 +15591,7 @@
         <v>43732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15647,7 +15648,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15709,7 +15710,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15766,7 +15767,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15823,7 +15824,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15880,7 +15881,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15937,7 +15938,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15994,7 +15995,7 @@
         <v>43752</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16051,7 +16052,7 @@
         <v>43754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16108,7 +16109,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16170,7 +16171,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16227,7 +16228,7 @@
         <v>43762</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16284,7 +16285,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16341,7 +16342,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16398,7 +16399,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16460,7 +16461,7 @@
         <v>43768</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16522,7 +16523,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16584,7 +16585,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16641,7 +16642,7 @@
         <v>43771</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16698,7 +16699,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16755,7 +16756,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16812,7 +16813,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16874,7 +16875,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16936,7 +16937,7 @@
         <v>43781</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16993,7 +16994,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17050,7 +17051,7 @@
         <v>43784</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17112,7 +17113,7 @@
         <v>43787</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17169,7 +17170,7 @@
         <v>43787</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17226,7 +17227,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17283,7 +17284,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17340,7 +17341,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17397,7 +17398,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17454,7 +17455,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17511,7 +17512,7 @@
         <v>43788</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17568,7 +17569,7 @@
         <v>43788</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17625,7 +17626,7 @@
         <v>43789</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17682,7 +17683,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17739,7 +17740,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17796,7 +17797,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17853,7 +17854,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17910,7 +17911,7 @@
         <v>43791</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17967,7 +17968,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18029,7 +18030,7 @@
         <v>43795</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18091,7 +18092,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18153,7 +18154,7 @@
         <v>43797</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18210,7 +18211,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18267,7 +18268,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18324,7 +18325,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18386,7 +18387,7 @@
         <v>43804</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18443,7 +18444,7 @@
         <v>43804</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18500,7 +18501,7 @@
         <v>43805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18557,7 +18558,7 @@
         <v>43805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18614,7 +18615,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18671,7 +18672,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18728,7 +18729,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18785,7 +18786,7 @@
         <v>43808</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18842,7 +18843,7 @@
         <v>43808</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18899,7 +18900,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18956,7 +18957,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19013,7 +19014,7 @@
         <v>43812</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19070,7 +19071,7 @@
         <v>43812</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19127,7 +19128,7 @@
         <v>43816</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19184,7 +19185,7 @@
         <v>43844</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19241,7 +19242,7 @@
         <v>43845</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19298,7 +19299,7 @@
         <v>43846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19360,7 +19361,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19417,7 +19418,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19474,7 +19475,7 @@
         <v>43848</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19531,7 +19532,7 @@
         <v>43850</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19593,7 +19594,7 @@
         <v>43850</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19650,7 +19651,7 @@
         <v>43851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19707,7 +19708,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19764,7 +19765,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19821,7 +19822,7 @@
         <v>43853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19878,7 +19879,7 @@
         <v>43853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19935,7 +19936,7 @@
         <v>43859</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19997,7 +19998,7 @@
         <v>43860</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20054,7 +20055,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20111,7 +20112,7 @@
         <v>43866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20168,7 +20169,7 @@
         <v>43885</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20225,7 +20226,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20282,7 +20283,7 @@
         <v>43896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20339,7 +20340,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20401,7 +20402,7 @@
         <v>43903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20458,7 +20459,7 @@
         <v>43908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20515,7 +20516,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20572,7 +20573,7 @@
         <v>43921</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20629,7 +20630,7 @@
         <v>43921</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20686,7 +20687,7 @@
         <v>43937</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20743,7 +20744,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20800,7 +20801,7 @@
         <v>43938</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20857,7 +20858,7 @@
         <v>43938</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20914,7 +20915,7 @@
         <v>43941</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20971,7 +20972,7 @@
         <v>43962</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21033,7 +21034,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21090,7 +21091,7 @@
         <v>43966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21147,7 +21148,7 @@
         <v>43966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21204,7 +21205,7 @@
         <v>43985</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21261,7 +21262,7 @@
         <v>43985</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21318,7 +21319,7 @@
         <v>43986</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21375,7 +21376,7 @@
         <v>43986</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21432,7 +21433,7 @@
         <v>43992</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21489,7 +21490,7 @@
         <v>43992</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21546,7 +21547,7 @@
         <v>43997</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21608,7 +21609,7 @@
         <v>43997</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21670,7 +21671,7 @@
         <v>44000</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21727,7 +21728,7 @@
         <v>44000</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21784,7 +21785,7 @@
         <v>44006</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21841,7 +21842,7 @@
         <v>44013</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21903,7 +21904,7 @@
         <v>44014</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21965,7 +21966,7 @@
         <v>44019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22022,7 +22023,7 @@
         <v>44035</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22079,7 +22080,7 @@
         <v>44039</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22136,7 +22137,7 @@
         <v>44041</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22193,7 +22194,7 @@
         <v>44042</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22250,7 +22251,7 @@
         <v>44042</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22307,7 +22308,7 @@
         <v>44048</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22364,7 +22365,7 @@
         <v>44048</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22421,7 +22422,7 @@
         <v>44055</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22478,7 +22479,7 @@
         <v>44055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22535,7 +22536,7 @@
         <v>44060</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22592,7 +22593,7 @@
         <v>44068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22649,7 +22650,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22706,7 +22707,7 @@
         <v>44069</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22763,7 +22764,7 @@
         <v>44069</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22820,7 +22821,7 @@
         <v>44070</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22877,7 +22878,7 @@
         <v>44074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22939,7 +22940,7 @@
         <v>44075</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22996,7 +22997,7 @@
         <v>44081</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23053,7 +23054,7 @@
         <v>44085</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23115,7 +23116,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23172,7 +23173,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23229,7 +23230,7 @@
         <v>44089</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23286,7 +23287,7 @@
         <v>44090</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23343,7 +23344,7 @@
         <v>44094</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23405,7 +23406,7 @@
         <v>44096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23462,7 +23463,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23519,7 +23520,7 @@
         <v>44099</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23576,7 +23577,7 @@
         <v>44099</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23633,7 +23634,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23710,7 +23711,7 @@
         <v>44105</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23767,7 +23768,7 @@
         <v>44105</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23824,7 +23825,7 @@
         <v>44109</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23881,7 +23882,7 @@
         <v>44120</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23938,7 +23939,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23995,7 +23996,7 @@
         <v>44130</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24057,7 +24058,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24119,7 +24120,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24176,7 +24177,7 @@
         <v>44132</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24238,7 +24239,7 @@
         <v>44132</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24300,7 +24301,7 @@
         <v>44134</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24357,7 +24358,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24414,7 +24415,7 @@
         <v>44139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24476,7 +24477,7 @@
         <v>44140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24538,7 +24539,7 @@
         <v>44144</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24595,7 +24596,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24652,7 +24653,7 @@
         <v>44145</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24709,7 +24710,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24766,7 +24767,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24823,7 +24824,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24885,7 +24886,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24942,7 +24943,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24999,7 +25000,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25061,7 +25062,7 @@
         <v>44155</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25118,7 +25119,7 @@
         <v>44165</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25180,7 +25181,7 @@
         <v>44166</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25237,7 +25238,7 @@
         <v>44167</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25294,7 +25295,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25351,7 +25352,7 @@
         <v>44172</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25408,7 +25409,7 @@
         <v>44172</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25465,7 +25466,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25522,7 +25523,7 @@
         <v>44174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25579,7 +25580,7 @@
         <v>44174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25636,7 +25637,7 @@
         <v>44175</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25693,7 +25694,7 @@
         <v>44176</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25750,7 +25751,7 @@
         <v>44180</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25807,7 +25808,7 @@
         <v>44188</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25864,7 +25865,7 @@
         <v>44194</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25921,7 +25922,7 @@
         <v>44203</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25983,7 +25984,7 @@
         <v>44203</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26045,7 +26046,7 @@
         <v>44209</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26107,7 +26108,7 @@
         <v>44209</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26169,7 +26170,7 @@
         <v>44211</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26226,7 +26227,7 @@
         <v>44211</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26283,7 +26284,7 @@
         <v>44214</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26340,7 +26341,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26402,7 +26403,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26459,7 +26460,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26516,7 +26517,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26573,7 +26574,7 @@
         <v>44221</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26630,7 +26631,7 @@
         <v>44224</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26687,7 +26688,7 @@
         <v>44230</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26744,7 +26745,7 @@
         <v>44238</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26806,7 +26807,7 @@
         <v>44238</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26868,7 +26869,7 @@
         <v>44239</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26930,7 +26931,7 @@
         <v>44239</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26987,7 +26988,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27049,7 +27050,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27111,7 +27112,7 @@
         <v>44245</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27173,7 +27174,7 @@
         <v>44245</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27235,7 +27236,7 @@
         <v>44250</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27292,7 +27293,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27349,7 +27350,7 @@
         <v>44251</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27406,7 +27407,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27463,7 +27464,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27520,7 +27521,7 @@
         <v>44262</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27577,7 +27578,7 @@
         <v>44262</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27634,7 +27635,7 @@
         <v>44280</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27691,7 +27692,7 @@
         <v>44284</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27748,7 +27749,7 @@
         <v>44285</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27805,7 +27806,7 @@
         <v>44295</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27867,7 +27868,7 @@
         <v>44298</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27924,7 +27925,7 @@
         <v>44306</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27981,7 +27982,7 @@
         <v>44307</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28038,7 +28039,7 @@
         <v>44308</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28095,7 +28096,7 @@
         <v>44312</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28152,7 +28153,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28209,7 +28210,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28271,7 +28272,7 @@
         <v>44328</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28328,7 +28329,7 @@
         <v>44329</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28385,7 +28386,7 @@
         <v>44333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28447,7 +28448,7 @@
         <v>44336</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28504,7 +28505,7 @@
         <v>44350</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28561,7 +28562,7 @@
         <v>44355</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28618,7 +28619,7 @@
         <v>44355</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28675,7 +28676,7 @@
         <v>44362</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28737,7 +28738,7 @@
         <v>44362</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28794,7 +28795,7 @@
         <v>44368</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28856,7 +28857,7 @@
         <v>44379</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28913,7 +28914,7 @@
         <v>44403</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28970,7 +28971,7 @@
         <v>44405</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29027,7 +29028,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29084,7 +29085,7 @@
         <v>44410</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29141,7 +29142,7 @@
         <v>44410</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29198,7 +29199,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29255,7 +29256,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29312,7 +29313,7 @@
         <v>44426</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29369,7 +29370,7 @@
         <v>44426</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29426,7 +29427,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29488,7 +29489,7 @@
         <v>44431</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29545,7 +29546,7 @@
         <v>44431</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29602,7 +29603,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29659,7 +29660,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29716,7 +29717,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29773,7 +29774,7 @@
         <v>44432</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29830,7 +29831,7 @@
         <v>44432</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29887,7 +29888,7 @@
         <v>44434</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29944,7 +29945,7 @@
         <v>44435</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30001,7 +30002,7 @@
         <v>44441</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30063,7 +30064,7 @@
         <v>44441</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30120,7 +30121,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30182,7 +30183,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30244,7 +30245,7 @@
         <v>44449</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30306,7 +30307,7 @@
         <v>44449</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30368,7 +30369,7 @@
         <v>44452</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30425,7 +30426,7 @@
         <v>44452</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30482,7 +30483,7 @@
         <v>44453</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30539,7 +30540,7 @@
         <v>44454</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30596,7 +30597,7 @@
         <v>44455</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30653,7 +30654,7 @@
         <v>44461</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30710,7 +30711,7 @@
         <v>44467</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30767,7 +30768,7 @@
         <v>44467</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30824,7 +30825,7 @@
         <v>44468</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30881,7 +30882,7 @@
         <v>44468</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30938,7 +30939,7 @@
         <v>44469</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31000,7 +31001,7 @@
         <v>44469</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31057,7 +31058,7 @@
         <v>44470</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31114,7 +31115,7 @@
         <v>44473</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31171,7 +31172,7 @@
         <v>44473</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31228,7 +31229,7 @@
         <v>44483</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31290,7 +31291,7 @@
         <v>44484</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31352,7 +31353,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31409,7 +31410,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31466,7 +31467,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31523,7 +31524,7 @@
         <v>44490</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31580,7 +31581,7 @@
         <v>44490</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31637,7 +31638,7 @@
         <v>44494</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31694,7 +31695,7 @@
         <v>44495</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31751,7 +31752,7 @@
         <v>44497</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31808,7 +31809,7 @@
         <v>44497</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31865,7 +31866,7 @@
         <v>44499</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31922,7 +31923,7 @@
         <v>44499</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31979,7 +31980,7 @@
         <v>44503</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32036,7 +32037,7 @@
         <v>44510</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32093,7 +32094,7 @@
         <v>44515</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32155,7 +32156,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32212,7 +32213,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32269,7 +32270,7 @@
         <v>44516</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32326,7 +32327,7 @@
         <v>44516</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32383,7 +32384,7 @@
         <v>44522</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32445,7 +32446,7 @@
         <v>44524</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32502,7 +32503,7 @@
         <v>44524</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32559,7 +32560,7 @@
         <v>44525</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32616,7 +32617,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32673,7 +32674,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32730,7 +32731,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32787,7 +32788,7 @@
         <v>44533</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32844,7 +32845,7 @@
         <v>44533</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32901,7 +32902,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32958,7 +32959,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33015,7 +33016,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33072,7 +33073,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33129,7 +33130,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33186,7 +33187,7 @@
         <v>44536</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33243,7 +33244,7 @@
         <v>44536</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33300,7 +33301,7 @@
         <v>44537</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33357,7 +33358,7 @@
         <v>44544</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33414,7 +33415,7 @@
         <v>44544</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33471,7 +33472,7 @@
         <v>44550</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33528,7 +33529,7 @@
         <v>44573</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33585,7 +33586,7 @@
         <v>44582</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33642,7 +33643,7 @@
         <v>44585</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33699,7 +33700,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33756,7 +33757,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33813,7 +33814,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33875,7 +33876,7 @@
         <v>44588</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33932,7 +33933,7 @@
         <v>44588</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33994,7 +33995,7 @@
         <v>44592</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34051,7 +34052,7 @@
         <v>44593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34108,7 +34109,7 @@
         <v>44594</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34170,7 +34171,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34233,7 @@
         <v>44606</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34294,7 +34295,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34356,7 +34357,7 @@
         <v>44608</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34413,7 +34414,7 @@
         <v>44608</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34470,7 +34471,7 @@
         <v>44610</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34527,7 +34528,7 @@
         <v>44613</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34584,7 +34585,7 @@
         <v>44616</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34641,7 +34642,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34698,7 +34699,7 @@
         <v>44617</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34755,7 +34756,7 @@
         <v>44617</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34812,7 +34813,7 @@
         <v>44618</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34869,7 +34870,7 @@
         <v>44626</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34926,7 +34927,7 @@
         <v>44628</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34983,7 +34984,7 @@
         <v>44628</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35040,7 +35041,7 @@
         <v>44634</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35097,7 +35098,7 @@
         <v>44636</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35154,7 +35155,7 @@
         <v>44638</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35211,7 +35212,7 @@
         <v>44642</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35273,7 +35274,7 @@
         <v>44643</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35330,7 +35331,7 @@
         <v>44644</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35387,7 +35388,7 @@
         <v>44648</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35444,7 +35445,7 @@
         <v>44654</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35501,7 +35502,7 @@
         <v>44655</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35563,7 +35564,7 @@
         <v>44658</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35625,7 +35626,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35682,7 +35683,7 @@
         <v>44662</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35739,7 +35740,7 @@
         <v>44662</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35796,7 +35797,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35853,7 +35854,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35915,7 +35916,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35977,7 +35978,7 @@
         <v>44664</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36039,7 +36040,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36096,7 +36097,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36153,7 +36154,7 @@
         <v>44673</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36210,7 +36211,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36267,7 +36268,7 @@
         <v>44683</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36324,7 +36325,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36386,7 +36387,7 @@
         <v>44689</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36443,7 +36444,7 @@
         <v>44693</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36505,7 +36506,7 @@
         <v>44698</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36567,7 +36568,7 @@
         <v>44699</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36629,7 +36630,7 @@
         <v>44701</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36686,7 +36687,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36743,7 +36744,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36800,7 +36801,7 @@
         <v>44720</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36857,7 +36858,7 @@
         <v>44722</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36919,7 +36920,7 @@
         <v>44729</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36981,7 +36982,7 @@
         <v>44729</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37043,7 +37044,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37105,7 +37106,7 @@
         <v>44732</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37167,7 +37168,7 @@
         <v>44732</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37224,7 +37225,7 @@
         <v>44733</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37281,7 +37282,7 @@
         <v>44734</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37338,7 +37339,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37395,7 +37396,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37472,7 +37473,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37534,7 +37535,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37591,7 +37592,7 @@
         <v>44746</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37648,7 +37649,7 @@
         <v>44746</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37705,7 +37706,7 @@
         <v>44749</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37762,7 +37763,7 @@
         <v>44755</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37819,7 +37820,7 @@
         <v>44755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37876,7 +37877,7 @@
         <v>44756</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37933,7 +37934,7 @@
         <v>44763</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37990,7 +37991,7 @@
         <v>44768</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38052,7 +38053,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38109,7 +38110,7 @@
         <v>44781</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38166,7 +38167,7 @@
         <v>44781</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38223,7 +38224,7 @@
         <v>44782</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38280,7 +38281,7 @@
         <v>44783</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38337,7 +38338,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38394,7 +38395,7 @@
         <v>44785</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38456,7 +38457,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38513,7 +38514,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38570,7 +38571,7 @@
         <v>44792</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38627,7 +38628,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38684,7 +38685,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38741,7 +38742,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38798,7 +38799,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38855,7 +38856,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38912,7 +38913,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38969,7 +38970,7 @@
         <v>44804</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39026,7 +39027,7 @@
         <v>44804</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39083,7 +39084,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39140,7 +39141,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39202,7 +39203,7 @@
         <v>44819</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39259,7 +39260,7 @@
         <v>44819</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39316,7 +39317,7 @@
         <v>44825</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39373,7 +39374,7 @@
         <v>44825</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39435,7 +39436,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39492,7 +39493,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39549,7 +39550,7 @@
         <v>44834</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39606,7 +39607,7 @@
         <v>44834</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39663,7 +39664,7 @@
         <v>44837</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39725,7 +39726,7 @@
         <v>44839</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39782,7 +39783,7 @@
         <v>44842</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39839,7 +39840,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39896,7 +39897,7 @@
         <v>44844</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39953,7 +39954,7 @@
         <v>44844</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40010,7 +40011,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40067,7 +40068,7 @@
         <v>44851</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40124,7 +40125,7 @@
         <v>44851</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40181,7 +40182,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40243,7 +40244,7 @@
         <v>44864</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40305,7 +40306,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40367,7 +40368,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40429,7 +40430,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40491,7 +40492,7 @@
         <v>44865</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40553,7 +40554,7 @@
         <v>44865</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40615,7 +40616,7 @@
         <v>44871</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40672,7 +40673,7 @@
         <v>44873</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40729,7 +40730,7 @@
         <v>44874</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40786,7 +40787,7 @@
         <v>44874</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40843,7 +40844,7 @@
         <v>44875</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40900,7 +40901,7 @@
         <v>44881</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40957,7 +40958,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41019,7 +41020,7 @@
         <v>44883</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41076,7 +41077,7 @@
         <v>44883</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41133,7 +41134,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41190,7 +41191,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41247,7 +41248,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41304,7 +41305,7 @@
         <v>44886</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41361,7 +41362,7 @@
         <v>44886</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41418,7 +41419,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41475,7 +41476,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41532,7 +41533,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41589,7 +41590,7 @@
         <v>44889</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41646,7 +41647,7 @@
         <v>44889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41703,7 +41704,7 @@
         <v>44900</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41760,7 +41761,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41817,7 +41818,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41874,7 +41875,7 @@
         <v>44903</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41931,7 +41932,7 @@
         <v>44903</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41988,7 +41989,7 @@
         <v>44904</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42050,7 +42051,7 @@
         <v>44909</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42107,7 +42108,7 @@
         <v>44914</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42164,7 +42165,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42221,7 +42222,7 @@
         <v>44915</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42278,7 +42279,7 @@
         <v>44915</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42335,7 +42336,7 @@
         <v>44917</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42392,7 +42393,7 @@
         <v>44917</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42449,7 +42450,7 @@
         <v>44918</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42506,7 +42507,7 @@
         <v>44918</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42563,7 +42564,7 @@
         <v>44925</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42620,7 +42621,7 @@
         <v>44928</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42677,7 +42678,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42734,7 +42735,7 @@
         <v>44930</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42791,7 +42792,7 @@
         <v>44930</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42848,7 +42849,7 @@
         <v>44942</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42905,7 +42906,7 @@
         <v>44942</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42962,7 +42963,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43019,7 +43020,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43076,7 +43077,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43133,7 +43134,7 @@
         <v>44946</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43190,7 +43191,7 @@
         <v>44946</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43247,7 +43248,7 @@
         <v>44953</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43309,7 +43310,7 @@
         <v>44953</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43371,7 +43372,7 @@
         <v>44955</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43428,7 +43429,7 @@
         <v>44956</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43485,7 +43486,7 @@
         <v>44957</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43542,7 +43543,7 @@
         <v>44959</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43599,7 +43600,7 @@
         <v>44959</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43656,7 +43657,7 @@
         <v>44964</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43713,7 +43714,7 @@
         <v>44964</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43770,7 +43771,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43827,7 +43828,7 @@
         <v>44965</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43884,7 +43885,7 @@
         <v>44965</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43946,7 +43947,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44003,7 +44004,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44060,7 +44061,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44117,7 +44118,7 @@
         <v>44966</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44174,7 +44175,7 @@
         <v>44966</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44231,7 +44232,7 @@
         <v>44978</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44293,7 +44294,7 @@
         <v>44979</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44350,7 +44351,7 @@
         <v>44983</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44407,7 +44408,7 @@
         <v>44985</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44464,7 +44465,7 @@
         <v>44985</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44521,7 +44522,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44583,7 +44584,7 @@
         <v>44998</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44640,7 +44641,7 @@
         <v>44998</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44702,7 +44703,7 @@
         <v>45002</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44764,7 +44765,7 @@
         <v>45004</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44821,7 +44822,7 @@
         <v>45005</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44878,7 +44879,7 @@
         <v>45005</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44935,7 +44936,7 @@
         <v>45006</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44992,7 +44993,7 @@
         <v>45006</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45049,7 +45050,7 @@
         <v>45008</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45106,7 +45107,7 @@
         <v>45014</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45163,7 +45164,7 @@
         <v>45020</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45220,7 +45221,7 @@
         <v>45021</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45277,7 +45278,7 @@
         <v>45028</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45334,7 +45335,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45391,7 +45392,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45448,7 +45449,7 @@
         <v>45036</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45505,7 +45506,7 @@
         <v>45036</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45562,7 +45563,7 @@
         <v>45041</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45619,7 +45620,7 @@
         <v>45041</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45676,7 +45677,7 @@
         <v>45043</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45733,7 +45734,7 @@
         <v>45044</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45790,7 +45791,7 @@
         <v>45044</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45847,7 +45848,7 @@
         <v>45048</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45904,7 +45905,7 @@
         <v>45049</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45961,7 +45962,7 @@
         <v>45050</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46018,7 +46019,7 @@
         <v>45050</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46075,7 +46076,7 @@
         <v>45054</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46132,7 +46133,7 @@
         <v>45056</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46194,7 +46195,7 @@
         <v>45056</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46256,7 +46257,7 @@
         <v>45057</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46318,7 +46319,7 @@
         <v>45058</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46395,7 +46396,7 @@
         <v>45058</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46452,7 +46453,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46514,7 +46515,7 @@
         <v>45063</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46571,7 +46572,7 @@
         <v>45068</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46628,7 +46629,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46690,7 +46691,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46752,7 +46753,7 @@
         <v>45077</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46814,7 +46815,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46871,7 +46872,7 @@
         <v>45079</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46928,7 +46929,7 @@
         <v>45086</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46990,7 +46991,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47047,7 +47048,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47104,7 +47105,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47161,7 +47162,7 @@
         <v>45093</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47218,7 +47219,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47275,7 +47276,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47332,7 +47333,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47389,7 +47390,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47451,7 +47452,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47508,7 +47509,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47570,7 +47571,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47627,7 +47628,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47684,7 +47685,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47741,7 +47742,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47803,7 +47804,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47860,7 +47861,7 @@
         <v>45103</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47917,7 +47918,7 @@
         <v>45106</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47974,7 +47975,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48036,7 +48037,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48098,7 +48099,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48155,7 +48156,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48217,7 +48218,7 @@
         <v>45107</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48274,7 +48275,7 @@
         <v>45111</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48331,7 +48332,7 @@
         <v>45117</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48388,7 +48389,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48445,7 +48446,7 @@
         <v>45118</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48502,7 +48503,7 @@
         <v>45119</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48564,7 +48565,7 @@
         <v>45120</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48626,7 +48627,7 @@
         <v>45138</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48683,7 +48684,7 @@
         <v>45140</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48745,7 +48746,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48807,7 +48808,7 @@
         <v>45146</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48869,7 +48870,7 @@
         <v>45151</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48926,7 +48927,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48983,7 +48984,7 @@
         <v>45154</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49040,7 +49041,7 @@
         <v>45156</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49097,7 +49098,7 @@
         <v>45159</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49159,7 +49160,7 @@
         <v>45170</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49216,7 +49217,7 @@
         <v>45182</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49278,7 +49279,7 @@
         <v>45183</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49335,7 +49336,7 @@
         <v>45183</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49397,7 +49398,7 @@
         <v>45183</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49454,7 +49455,7 @@
         <v>45183</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y800"/>
+  <dimension ref="A1:Y801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,59 +777,160 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A 29642-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44754</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ESKILSTUNA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>12</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Leptoporus erubescens
+Spillkråka
+Talltita
+Tvåtandad spolsnäcka
+Ullticka
+Grön sköldmossa
+Hasselticka
+Igelkottsröksvamp
+Jättesvampmal
+Mindre märgborre
+Vanlig groda
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/artfynd/A 29642-2022.xlsx", "A 29642-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/kartor/A 29642-2022.png", "A 29642-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/klagomål/A 29642-2022.docx", "A 29642-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/klagomålsmail/A 29642-2022.docx", "A 29642-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/tillsyn/A 29642-2022.docx", "A 29642-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/tillsynsmail/A 29642-2022.docx", "A 29642-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>A 42022-2021</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44426</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ESKILSTUNA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESKILSTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>3.9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>11</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Dofttaggsvamp
@@ -844,132 +945,32 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/artfynd/A 42022-2021.xlsx", "A 42022-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/kartor/A 42022-2021.png", "A 42022-2021")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/knärot/A 42022-2021.png", "A 42022-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/klagomål/A 42022-2021.docx", "A 42022-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/klagomålsmail/A 42022-2021.docx", "A 42022-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/tillsyn/A 42022-2021.docx", "A 42022-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/tillsynsmail/A 42022-2021.docx", "A 42022-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 29642-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44754</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESKILSTUNA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>11</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Leptoporus erubescens
-Spillkråka
-Talltita
-Tvåtandad spolsnäcka
-Ullticka
-Grön sköldmossa
-Igelkottsröksvamp
-Jättesvampmal
-Mindre märgborre
-Vanlig groda
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/artfynd/A 29642-2022.xlsx", "A 29642-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/kartor/A 29642-2022.png", "A 29642-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/klagomål/A 29642-2022.docx", "A 29642-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/klagomålsmail/A 29642-2022.docx", "A 29642-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/tillsyn/A 29642-2022.docx", "A 29642-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESKILSTUNA/tillsynsmail/A 29642-2022.docx", "A 29642-2022")</f>
         <v/>
       </c>
     </row>
@@ -983,7 +984,7 @@
         <v>43357</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1076,7 @@
         <v>43816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1168,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1263,7 @@
         <v>44712</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1359,7 @@
         <v>43740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1449,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1539,7 @@
         <v>44544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1632,7 +1633,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1725,7 +1726,7 @@
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1815,7 @@
         <v>44811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1903,7 +1904,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1992,7 +1993,7 @@
         <v>45034</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2086,7 @@
         <v>43712</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,7 +2179,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2276,7 @@
         <v>44336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2363,7 +2364,7 @@
         <v>44581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2457,7 @@
         <v>44768</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2549,7 +2550,7 @@
         <v>44789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2642,7 @@
         <v>44953</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2738,7 +2739,7 @@
         <v>43706</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2825,7 +2826,7 @@
         <v>43740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2916,7 +2917,7 @@
         <v>44139</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3008,7 +3009,7 @@
         <v>44284</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3104,7 +3105,7 @@
         <v>44657</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3197,7 @@
         <v>44916</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3283,7 +3284,7 @@
         <v>44953</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3379,7 +3380,7 @@
         <v>44978</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3475,7 +3476,7 @@
         <v>45044</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3562,7 +3563,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3653,7 +3654,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3739,7 +3740,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3825,7 +3826,7 @@
         <v>43815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3911,7 +3912,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4001,7 +4002,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4087,7 +4088,7 @@
         <v>44092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4178,7 +4179,7 @@
         <v>44133</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4269,7 +4270,7 @@
         <v>44530</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4355,7 +4356,7 @@
         <v>44544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4441,7 +4442,7 @@
         <v>44712</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4532,7 +4533,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4627,7 +4628,7 @@
         <v>44930</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4718,7 +4719,7 @@
         <v>43507</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4803,7 +4804,7 @@
         <v>43592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4893,7 +4894,7 @@
         <v>43629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4982,7 +4983,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5067,7 +5068,7 @@
         <v>43740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5152,7 +5153,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5237,7 +5238,7 @@
         <v>43921</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5327,7 +5328,7 @@
         <v>43964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5412,7 +5413,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5497,7 +5498,7 @@
         <v>44134</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5582,7 +5583,7 @@
         <v>44378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5672,7 +5673,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5757,7 +5758,7 @@
         <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5847,7 +5848,7 @@
         <v>44515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5937,7 +5938,7 @@
         <v>44582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6027,7 +6028,7 @@
         <v>44664</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6117,7 +6118,7 @@
         <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6202,7 +6203,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6287,7 +6288,7 @@
         <v>44834</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6376,7 +6377,7 @@
         <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6465,7 +6466,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6550,7 +6551,7 @@
         <v>44918</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6635,7 +6636,7 @@
         <v>45012</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6725,7 +6726,7 @@
         <v>45050</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6815,7 +6816,7 @@
         <v>45063</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6900,7 +6901,7 @@
         <v>45077</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6985,7 +6986,7 @@
         <v>45086</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7075,7 +7076,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7165,7 +7166,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7255,7 +7256,7 @@
         <v>45097</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7345,7 +7346,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7435,7 +7436,7 @@
         <v>45141</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7525,7 +7526,7 @@
         <v>45181</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7615,7 +7616,7 @@
         <v>43353</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7672,7 +7673,7 @@
         <v>43356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7729,7 +7730,7 @@
         <v>43360</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7786,7 +7787,7 @@
         <v>43360</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7843,7 +7844,7 @@
         <v>43388</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7900,7 +7901,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7957,7 +7958,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8014,7 +8015,7 @@
         <v>43396</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8071,7 +8072,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8128,7 +8129,7 @@
         <v>43406</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8185,7 +8186,7 @@
         <v>43406</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8242,7 +8243,7 @@
         <v>43413</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8299,7 +8300,7 @@
         <v>43413</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8356,7 +8357,7 @@
         <v>43418</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8413,7 +8414,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8475,7 +8476,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8537,7 +8538,7 @@
         <v>43426</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8599,7 +8600,7 @@
         <v>43426</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8661,7 +8662,7 @@
         <v>43427</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8718,7 +8719,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8775,7 +8776,7 @@
         <v>43431</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8832,7 +8833,7 @@
         <v>43431</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8889,7 +8890,7 @@
         <v>43439</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8946,7 +8947,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9003,7 +9004,7 @@
         <v>43441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9060,7 +9061,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9117,7 +9118,7 @@
         <v>43445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9174,7 +9175,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9231,7 +9232,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9288,7 +9289,7 @@
         <v>43452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9350,7 +9351,7 @@
         <v>43455</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9407,7 +9408,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9464,7 +9465,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9521,7 +9522,7 @@
         <v>43461</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9578,7 +9579,7 @@
         <v>43464</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9640,7 +9641,7 @@
         <v>43464</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9702,7 +9703,7 @@
         <v>43466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9759,7 +9760,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9821,7 +9822,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9883,7 +9884,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9940,7 +9941,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9997,7 +9998,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10054,7 +10055,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10111,7 +10112,7 @@
         <v>43474</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10168,7 +10169,7 @@
         <v>43475</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10225,7 +10226,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10282,7 +10283,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10339,7 +10340,7 @@
         <v>43480</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10396,7 +10397,7 @@
         <v>43486</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10453,7 +10454,7 @@
         <v>43489</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10510,7 +10511,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10568,7 @@
         <v>43493</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10624,7 +10625,7 @@
         <v>43494</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10681,7 +10682,7 @@
         <v>43496</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10738,7 +10739,7 @@
         <v>43496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10795,7 +10796,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10852,7 +10853,7 @@
         <v>43507</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10909,7 +10910,7 @@
         <v>43507</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10966,7 +10967,7 @@
         <v>43509</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11023,7 +11024,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11080,7 +11081,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11137,7 +11138,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11194,7 +11195,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11251,7 +11252,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11308,7 +11309,7 @@
         <v>43521</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11365,7 +11366,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11427,7 +11428,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11489,7 +11490,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11546,7 +11547,7 @@
         <v>43524</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11603,7 +11604,7 @@
         <v>43524</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11665,7 +11666,7 @@
         <v>43526</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11722,7 +11723,7 @@
         <v>43528</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11779,7 +11780,7 @@
         <v>43530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11841,7 +11842,7 @@
         <v>43530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11898,7 +11899,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11955,7 +11956,7 @@
         <v>43537</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12012,7 +12013,7 @@
         <v>43538</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12074,7 +12075,7 @@
         <v>43539</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12131,7 +12132,7 @@
         <v>43539</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12188,7 +12189,7 @@
         <v>43542</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12245,7 +12246,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12302,7 +12303,7 @@
         <v>43557</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12359,7 +12360,7 @@
         <v>43558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12416,7 +12417,7 @@
         <v>43558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12473,7 +12474,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12530,7 +12531,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12587,7 +12588,7 @@
         <v>43559</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12644,7 +12645,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12701,7 +12702,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12758,7 +12759,7 @@
         <v>43565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12815,7 +12816,7 @@
         <v>43570</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12877,7 +12878,7 @@
         <v>43580</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12939,7 +12940,7 @@
         <v>43580</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12996,7 +12997,7 @@
         <v>43585</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13058,7 +13059,7 @@
         <v>43595</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13115,7 +13116,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13177,7 +13178,7 @@
         <v>43619</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13234,7 +13235,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13291,7 +13292,7 @@
         <v>43629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13348,7 +13349,7 @@
         <v>43629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13410,7 +13411,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13467,7 +13468,7 @@
         <v>43643</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13524,7 +13525,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13586,7 +13587,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13648,7 +13649,7 @@
         <v>43656</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13705,7 +13706,7 @@
         <v>43662</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13762,7 +13763,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13819,7 +13820,7 @@
         <v>43667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13876,7 +13877,7 @@
         <v>43667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13933,7 +13934,7 @@
         <v>43677</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13990,7 +13991,7 @@
         <v>43678</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14047,7 +14048,7 @@
         <v>43679</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14105,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14162,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14219,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14275,7 +14276,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14332,7 +14333,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14389,7 +14390,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14446,7 +14447,7 @@
         <v>43684</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14503,7 +14504,7 @@
         <v>43685</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14560,7 +14561,7 @@
         <v>43690</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14617,7 +14618,7 @@
         <v>43690</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14674,7 +14675,7 @@
         <v>43693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14731,7 +14732,7 @@
         <v>43693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14788,7 +14789,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14845,7 +14846,7 @@
         <v>43696</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14902,7 +14903,7 @@
         <v>43696</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14959,7 +14960,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15016,7 +15017,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15073,7 +15074,7 @@
         <v>43705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15130,7 +15131,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15187,7 +15188,7 @@
         <v>43706</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15244,7 +15245,7 @@
         <v>43712</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15301,7 +15302,7 @@
         <v>43712</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15358,7 +15359,7 @@
         <v>43713</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15415,7 +15416,7 @@
         <v>43721</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15472,7 +15473,7 @@
         <v>43728</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15534,7 +15535,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15591,7 +15592,7 @@
         <v>43732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15648,7 +15649,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15710,7 +15711,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15767,7 +15768,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15824,7 +15825,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15881,7 +15882,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15938,7 +15939,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15995,7 +15996,7 @@
         <v>43752</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16052,7 +16053,7 @@
         <v>43754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16109,7 +16110,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16171,7 +16172,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16228,7 +16229,7 @@
         <v>43762</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16285,7 +16286,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16342,7 +16343,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16399,7 +16400,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16461,7 +16462,7 @@
         <v>43768</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16523,7 +16524,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16585,7 +16586,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16642,7 +16643,7 @@
         <v>43771</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16699,7 +16700,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16756,7 +16757,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16813,7 +16814,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16875,7 +16876,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16937,7 +16938,7 @@
         <v>43781</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16994,7 +16995,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17051,7 +17052,7 @@
         <v>43784</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17113,7 +17114,7 @@
         <v>43787</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17170,7 +17171,7 @@
         <v>43787</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17227,7 +17228,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17284,7 +17285,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17341,7 +17342,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17398,7 +17399,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17455,7 +17456,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17512,7 +17513,7 @@
         <v>43788</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17569,7 +17570,7 @@
         <v>43788</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17626,7 +17627,7 @@
         <v>43789</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17683,7 +17684,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17740,7 +17741,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17797,7 +17798,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17854,7 +17855,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17911,7 +17912,7 @@
         <v>43791</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17968,7 +17969,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18030,7 +18031,7 @@
         <v>43795</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18092,7 +18093,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18154,7 +18155,7 @@
         <v>43797</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18211,7 +18212,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18268,7 +18269,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18325,7 +18326,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18387,7 +18388,7 @@
         <v>43804</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18444,7 +18445,7 @@
         <v>43804</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18501,7 +18502,7 @@
         <v>43805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18558,7 +18559,7 @@
         <v>43805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18615,7 +18616,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18672,7 +18673,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18729,7 +18730,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18786,7 +18787,7 @@
         <v>43808</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18843,7 +18844,7 @@
         <v>43808</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18900,7 +18901,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18957,7 +18958,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19014,7 +19015,7 @@
         <v>43812</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19071,7 +19072,7 @@
         <v>43812</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19128,7 +19129,7 @@
         <v>43816</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19185,7 +19186,7 @@
         <v>43844</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19242,7 +19243,7 @@
         <v>43845</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19299,7 +19300,7 @@
         <v>43846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19361,7 +19362,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19418,7 +19419,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19475,7 +19476,7 @@
         <v>43848</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19532,7 +19533,7 @@
         <v>43850</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19594,7 +19595,7 @@
         <v>43850</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19651,7 +19652,7 @@
         <v>43851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19708,7 +19709,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19765,7 +19766,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19822,7 +19823,7 @@
         <v>43853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19879,7 +19880,7 @@
         <v>43853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19936,7 +19937,7 @@
         <v>43859</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19998,7 +19999,7 @@
         <v>43860</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20055,7 +20056,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20112,7 +20113,7 @@
         <v>43866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20169,7 +20170,7 @@
         <v>43885</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20226,7 +20227,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20283,7 +20284,7 @@
         <v>43896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20340,7 +20341,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20402,7 +20403,7 @@
         <v>43903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20459,7 +20460,7 @@
         <v>43908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20516,7 +20517,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20573,7 +20574,7 @@
         <v>43921</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20630,7 +20631,7 @@
         <v>43921</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20687,7 +20688,7 @@
         <v>43937</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20744,7 +20745,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20801,7 +20802,7 @@
         <v>43938</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20858,7 +20859,7 @@
         <v>43938</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20915,7 +20916,7 @@
         <v>43941</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20972,7 +20973,7 @@
         <v>43962</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21034,7 +21035,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21091,7 +21092,7 @@
         <v>43966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21148,7 +21149,7 @@
         <v>43966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21205,7 +21206,7 @@
         <v>43985</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21262,7 +21263,7 @@
         <v>43985</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21319,7 +21320,7 @@
         <v>43986</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21376,7 +21377,7 @@
         <v>43986</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21433,7 +21434,7 @@
         <v>43992</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21490,7 +21491,7 @@
         <v>43992</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21547,7 +21548,7 @@
         <v>43997</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21609,7 +21610,7 @@
         <v>43997</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21671,7 +21672,7 @@
         <v>44000</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21728,7 +21729,7 @@
         <v>44000</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21785,7 +21786,7 @@
         <v>44006</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21842,7 +21843,7 @@
         <v>44013</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21904,7 +21905,7 @@
         <v>44014</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21966,7 +21967,7 @@
         <v>44019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22023,7 +22024,7 @@
         <v>44035</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22080,7 +22081,7 @@
         <v>44039</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22137,7 +22138,7 @@
         <v>44041</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22194,7 +22195,7 @@
         <v>44042</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22251,7 +22252,7 @@
         <v>44042</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22308,7 +22309,7 @@
         <v>44048</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22365,7 +22366,7 @@
         <v>44048</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22422,7 +22423,7 @@
         <v>44055</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22479,7 +22480,7 @@
         <v>44055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22536,7 +22537,7 @@
         <v>44060</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22593,7 +22594,7 @@
         <v>44068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22650,7 +22651,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22707,7 +22708,7 @@
         <v>44069</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22764,7 +22765,7 @@
         <v>44069</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22821,7 +22822,7 @@
         <v>44070</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22878,7 +22879,7 @@
         <v>44074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22940,7 +22941,7 @@
         <v>44075</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22997,7 +22998,7 @@
         <v>44081</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23054,7 +23055,7 @@
         <v>44085</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23116,7 +23117,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23173,7 +23174,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23230,7 +23231,7 @@
         <v>44089</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23287,7 +23288,7 @@
         <v>44090</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23344,7 +23345,7 @@
         <v>44094</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23406,7 +23407,7 @@
         <v>44096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23463,7 +23464,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23520,7 +23521,7 @@
         <v>44099</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23577,7 +23578,7 @@
         <v>44099</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23634,7 +23635,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23711,7 +23712,7 @@
         <v>44105</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23768,7 +23769,7 @@
         <v>44105</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23825,7 +23826,7 @@
         <v>44109</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23882,7 +23883,7 @@
         <v>44120</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23939,7 +23940,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23996,7 +23997,7 @@
         <v>44130</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24058,7 +24059,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24120,7 +24121,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24177,7 +24178,7 @@
         <v>44132</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24239,7 +24240,7 @@
         <v>44132</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24301,7 +24302,7 @@
         <v>44134</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24358,7 +24359,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24415,7 +24416,7 @@
         <v>44139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24477,7 +24478,7 @@
         <v>44140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24539,7 +24540,7 @@
         <v>44144</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24596,7 +24597,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24653,7 +24654,7 @@
         <v>44145</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24710,7 +24711,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24767,7 +24768,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24824,7 +24825,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24886,7 +24887,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24943,7 +24944,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25000,7 +25001,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25062,7 +25063,7 @@
         <v>44155</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25119,7 +25120,7 @@
         <v>44165</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25181,7 +25182,7 @@
         <v>44166</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25238,7 +25239,7 @@
         <v>44167</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25295,7 +25296,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25352,7 +25353,7 @@
         <v>44172</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25409,7 +25410,7 @@
         <v>44172</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25466,7 +25467,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25523,7 +25524,7 @@
         <v>44174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25580,7 +25581,7 @@
         <v>44174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25637,7 +25638,7 @@
         <v>44175</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25694,7 +25695,7 @@
         <v>44176</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25751,7 +25752,7 @@
         <v>44180</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25808,7 +25809,7 @@
         <v>44188</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25865,7 +25866,7 @@
         <v>44194</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25922,7 +25923,7 @@
         <v>44203</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25984,7 +25985,7 @@
         <v>44203</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26046,7 +26047,7 @@
         <v>44209</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26108,7 +26109,7 @@
         <v>44209</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26170,7 +26171,7 @@
         <v>44211</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26227,7 +26228,7 @@
         <v>44211</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26284,7 +26285,7 @@
         <v>44214</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26341,7 +26342,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26403,7 +26404,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26460,7 +26461,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26517,7 +26518,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26574,7 +26575,7 @@
         <v>44221</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26631,7 +26632,7 @@
         <v>44224</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26688,7 +26689,7 @@
         <v>44230</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26745,7 +26746,7 @@
         <v>44238</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26807,7 +26808,7 @@
         <v>44238</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26869,7 +26870,7 @@
         <v>44239</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26931,7 +26932,7 @@
         <v>44239</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26988,7 +26989,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27050,7 +27051,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27112,7 +27113,7 @@
         <v>44245</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27174,7 +27175,7 @@
         <v>44245</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27236,7 +27237,7 @@
         <v>44250</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27293,7 +27294,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27350,7 +27351,7 @@
         <v>44251</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27407,7 +27408,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27464,7 +27465,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27521,7 +27522,7 @@
         <v>44262</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27578,7 +27579,7 @@
         <v>44262</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27635,7 +27636,7 @@
         <v>44280</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27692,7 +27693,7 @@
         <v>44284</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27749,7 +27750,7 @@
         <v>44285</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27806,7 +27807,7 @@
         <v>44295</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27868,7 +27869,7 @@
         <v>44298</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27925,7 +27926,7 @@
         <v>44306</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27982,7 +27983,7 @@
         <v>44307</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28039,7 +28040,7 @@
         <v>44308</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28096,7 +28097,7 @@
         <v>44312</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28153,7 +28154,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28210,7 +28211,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28272,7 +28273,7 @@
         <v>44328</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28329,7 +28330,7 @@
         <v>44329</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28386,7 +28387,7 @@
         <v>44333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28448,7 +28449,7 @@
         <v>44336</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28505,7 +28506,7 @@
         <v>44350</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28562,7 +28563,7 @@
         <v>44355</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28619,7 +28620,7 @@
         <v>44355</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28676,7 +28677,7 @@
         <v>44362</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28738,7 +28739,7 @@
         <v>44362</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28795,7 +28796,7 @@
         <v>44368</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28857,7 +28858,7 @@
         <v>44379</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28914,7 +28915,7 @@
         <v>44403</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28971,7 +28972,7 @@
         <v>44405</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29028,7 +29029,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29085,7 +29086,7 @@
         <v>44410</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29142,7 +29143,7 @@
         <v>44410</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29199,7 +29200,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29256,7 +29257,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29313,7 +29314,7 @@
         <v>44426</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29370,7 +29371,7 @@
         <v>44426</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29427,7 +29428,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29489,7 +29490,7 @@
         <v>44431</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29546,7 +29547,7 @@
         <v>44431</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29603,7 +29604,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29660,7 +29661,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29717,7 +29718,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29774,7 +29775,7 @@
         <v>44432</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29831,7 +29832,7 @@
         <v>44432</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29888,7 +29889,7 @@
         <v>44434</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29945,7 +29946,7 @@
         <v>44435</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30002,7 +30003,7 @@
         <v>44441</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30064,7 +30065,7 @@
         <v>44441</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30121,7 +30122,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30183,7 +30184,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30245,7 +30246,7 @@
         <v>44449</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30307,7 +30308,7 @@
         <v>44449</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30369,7 +30370,7 @@
         <v>44452</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30426,7 +30427,7 @@
         <v>44452</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30483,7 +30484,7 @@
         <v>44453</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30540,7 +30541,7 @@
         <v>44454</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30597,7 +30598,7 @@
         <v>44455</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30654,7 +30655,7 @@
         <v>44461</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30711,7 +30712,7 @@
         <v>44467</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30768,7 +30769,7 @@
         <v>44467</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30825,7 +30826,7 @@
         <v>44468</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30882,7 +30883,7 @@
         <v>44468</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30939,7 +30940,7 @@
         <v>44469</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31001,7 +31002,7 @@
         <v>44469</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31058,7 +31059,7 @@
         <v>44470</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31115,7 +31116,7 @@
         <v>44473</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31172,7 +31173,7 @@
         <v>44473</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31229,7 +31230,7 @@
         <v>44483</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31291,7 +31292,7 @@
         <v>44484</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31353,7 +31354,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31410,7 +31411,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31467,7 +31468,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31524,7 +31525,7 @@
         <v>44490</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31581,7 +31582,7 @@
         <v>44490</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31638,7 +31639,7 @@
         <v>44494</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31695,7 +31696,7 @@
         <v>44495</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31752,7 +31753,7 @@
         <v>44497</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31809,7 +31810,7 @@
         <v>44497</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31866,7 +31867,7 @@
         <v>44499</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31923,7 +31924,7 @@
         <v>44499</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31980,7 +31981,7 @@
         <v>44503</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32037,7 +32038,7 @@
         <v>44510</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32094,7 +32095,7 @@
         <v>44515</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32156,7 +32157,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32213,7 +32214,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32270,7 +32271,7 @@
         <v>44516</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32327,7 +32328,7 @@
         <v>44516</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32384,7 +32385,7 @@
         <v>44522</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32446,7 +32447,7 @@
         <v>44524</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32503,7 +32504,7 @@
         <v>44524</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32560,7 +32561,7 @@
         <v>44525</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32617,7 +32618,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32674,7 +32675,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32731,7 +32732,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32788,7 +32789,7 @@
         <v>44533</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32845,7 +32846,7 @@
         <v>44533</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32902,7 +32903,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32959,7 +32960,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33016,7 +33017,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33073,7 +33074,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33130,7 +33131,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33187,7 +33188,7 @@
         <v>44536</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33244,7 +33245,7 @@
         <v>44536</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33301,7 +33302,7 @@
         <v>44537</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33358,7 +33359,7 @@
         <v>44544</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33415,7 +33416,7 @@
         <v>44544</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33472,7 +33473,7 @@
         <v>44550</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33529,7 +33530,7 @@
         <v>44573</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33586,7 +33587,7 @@
         <v>44582</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33643,7 +33644,7 @@
         <v>44585</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33700,7 +33701,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33757,7 +33758,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33814,7 +33815,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33876,7 +33877,7 @@
         <v>44588</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33933,7 +33934,7 @@
         <v>44588</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33995,7 +33996,7 @@
         <v>44592</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34052,7 +34053,7 @@
         <v>44593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34109,7 +34110,7 @@
         <v>44594</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34171,7 +34172,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34233,7 +34234,7 @@
         <v>44606</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34295,7 +34296,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34357,7 +34358,7 @@
         <v>44608</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34414,7 +34415,7 @@
         <v>44608</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34471,7 +34472,7 @@
         <v>44610</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34528,7 +34529,7 @@
         <v>44613</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34585,7 +34586,7 @@
         <v>44616</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34642,7 +34643,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34699,7 +34700,7 @@
         <v>44617</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34756,7 +34757,7 @@
         <v>44617</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34813,7 +34814,7 @@
         <v>44618</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34870,7 +34871,7 @@
         <v>44626</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34927,7 +34928,7 @@
         <v>44628</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34984,7 +34985,7 @@
         <v>44628</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35041,7 +35042,7 @@
         <v>44634</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35098,7 +35099,7 @@
         <v>44636</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35155,7 +35156,7 @@
         <v>44638</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35212,7 +35213,7 @@
         <v>44642</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35274,7 +35275,7 @@
         <v>44643</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35331,7 +35332,7 @@
         <v>44644</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35388,7 +35389,7 @@
         <v>44648</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35445,7 +35446,7 @@
         <v>44654</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35502,7 +35503,7 @@
         <v>44655</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35564,7 +35565,7 @@
         <v>44658</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35626,7 +35627,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35683,7 +35684,7 @@
         <v>44662</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35740,7 +35741,7 @@
         <v>44662</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35797,7 +35798,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35854,7 +35855,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35916,7 +35917,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35978,7 +35979,7 @@
         <v>44664</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36040,7 +36041,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36097,7 +36098,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36154,7 +36155,7 @@
         <v>44673</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36211,7 +36212,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36268,7 +36269,7 @@
         <v>44683</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36325,7 +36326,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36387,7 +36388,7 @@
         <v>44689</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36444,7 +36445,7 @@
         <v>44693</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36506,7 +36507,7 @@
         <v>44698</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36568,7 +36569,7 @@
         <v>44699</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36630,7 +36631,7 @@
         <v>44701</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36687,7 +36688,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36744,7 +36745,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36801,7 +36802,7 @@
         <v>44720</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36858,7 +36859,7 @@
         <v>44722</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36920,7 +36921,7 @@
         <v>44729</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36982,7 +36983,7 @@
         <v>44729</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37044,7 +37045,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37106,7 +37107,7 @@
         <v>44732</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37168,7 +37169,7 @@
         <v>44732</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37225,7 +37226,7 @@
         <v>44733</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37282,7 +37283,7 @@
         <v>44734</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37339,7 +37340,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37396,7 +37397,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37473,7 +37474,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37535,7 +37536,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37592,7 +37593,7 @@
         <v>44746</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37649,7 +37650,7 @@
         <v>44746</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37706,7 +37707,7 @@
         <v>44749</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37763,7 +37764,7 @@
         <v>44755</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37820,7 +37821,7 @@
         <v>44755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37877,7 +37878,7 @@
         <v>44756</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37934,7 +37935,7 @@
         <v>44763</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37991,7 +37992,7 @@
         <v>44768</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38053,7 +38054,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38110,7 +38111,7 @@
         <v>44781</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38167,7 +38168,7 @@
         <v>44781</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38224,7 +38225,7 @@
         <v>44782</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38281,7 +38282,7 @@
         <v>44783</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38338,7 +38339,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38395,7 +38396,7 @@
         <v>44785</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38457,7 +38458,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38514,7 +38515,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38571,7 +38572,7 @@
         <v>44792</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38628,7 +38629,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38685,7 +38686,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38742,7 +38743,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38799,7 +38800,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38856,7 +38857,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38913,7 +38914,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38970,7 +38971,7 @@
         <v>44804</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39027,7 +39028,7 @@
         <v>44804</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39084,7 +39085,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39141,7 +39142,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39203,7 +39204,7 @@
         <v>44819</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39260,7 +39261,7 @@
         <v>44819</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39317,7 +39318,7 @@
         <v>44825</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39374,7 +39375,7 @@
         <v>44825</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39436,7 +39437,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39493,7 +39494,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39550,7 +39551,7 @@
         <v>44834</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39607,7 +39608,7 @@
         <v>44834</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39664,7 +39665,7 @@
         <v>44837</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39726,7 +39727,7 @@
         <v>44839</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39783,7 +39784,7 @@
         <v>44842</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39840,7 +39841,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39897,7 +39898,7 @@
         <v>44844</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39954,7 +39955,7 @@
         <v>44844</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40011,7 +40012,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40068,7 +40069,7 @@
         <v>44851</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40125,7 +40126,7 @@
         <v>44851</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40182,7 +40183,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40244,7 +40245,7 @@
         <v>44864</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40306,7 +40307,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40368,7 +40369,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40430,7 +40431,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40492,7 +40493,7 @@
         <v>44865</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40554,7 +40555,7 @@
         <v>44865</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40616,7 +40617,7 @@
         <v>44871</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40673,7 +40674,7 @@
         <v>44873</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40730,7 +40731,7 @@
         <v>44874</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40787,7 +40788,7 @@
         <v>44874</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40844,7 +40845,7 @@
         <v>44875</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40901,7 +40902,7 @@
         <v>44881</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40958,7 +40959,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41020,7 +41021,7 @@
         <v>44883</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41077,7 +41078,7 @@
         <v>44883</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41134,7 +41135,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41191,7 +41192,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41248,7 +41249,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41305,7 +41306,7 @@
         <v>44886</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41362,7 +41363,7 @@
         <v>44886</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41419,7 +41420,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41476,7 +41477,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41533,7 +41534,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41590,7 +41591,7 @@
         <v>44889</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41647,7 +41648,7 @@
         <v>44889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41704,7 +41705,7 @@
         <v>44900</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41761,7 +41762,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41818,7 +41819,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41875,7 +41876,7 @@
         <v>44903</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41932,7 +41933,7 @@
         <v>44903</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41989,7 +41990,7 @@
         <v>44904</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42051,7 +42052,7 @@
         <v>44909</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42108,7 +42109,7 @@
         <v>44914</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42165,7 +42166,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42222,7 +42223,7 @@
         <v>44915</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42279,7 +42280,7 @@
         <v>44915</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42336,7 +42337,7 @@
         <v>44917</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42393,7 +42394,7 @@
         <v>44917</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42450,7 +42451,7 @@
         <v>44918</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42507,7 +42508,7 @@
         <v>44918</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42564,7 +42565,7 @@
         <v>44925</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42621,7 +42622,7 @@
         <v>44928</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42678,7 +42679,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42735,7 +42736,7 @@
         <v>44930</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42792,7 +42793,7 @@
         <v>44930</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42849,7 +42850,7 @@
         <v>44942</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42906,7 +42907,7 @@
         <v>44942</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42963,7 +42964,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43020,7 +43021,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43077,7 +43078,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43134,7 +43135,7 @@
         <v>44946</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43191,7 +43192,7 @@
         <v>44946</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43248,7 +43249,7 @@
         <v>44953</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43310,7 +43311,7 @@
         <v>44953</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43372,7 +43373,7 @@
         <v>44955</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43429,7 +43430,7 @@
         <v>44956</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43486,7 +43487,7 @@
         <v>44957</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43543,7 +43544,7 @@
         <v>44959</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43600,7 +43601,7 @@
         <v>44959</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43657,7 +43658,7 @@
         <v>44964</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43714,7 +43715,7 @@
         <v>44964</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43771,7 +43772,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43828,7 +43829,7 @@
         <v>44965</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43885,7 +43886,7 @@
         <v>44965</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43947,7 +43948,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44004,7 +44005,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44061,7 +44062,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44118,7 +44119,7 @@
         <v>44966</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44175,7 +44176,7 @@
         <v>44966</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44232,7 +44233,7 @@
         <v>44978</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44294,7 +44295,7 @@
         <v>44979</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44351,7 +44352,7 @@
         <v>44983</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44408,7 +44409,7 @@
         <v>44985</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44465,7 +44466,7 @@
         <v>44985</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44522,7 +44523,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44584,7 +44585,7 @@
         <v>44998</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44641,7 +44642,7 @@
         <v>44998</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44703,7 +44704,7 @@
         <v>45002</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44765,7 +44766,7 @@
         <v>45004</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44822,7 +44823,7 @@
         <v>45005</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44879,7 +44880,7 @@
         <v>45005</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44936,7 +44937,7 @@
         <v>45006</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44993,7 +44994,7 @@
         <v>45006</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45050,7 +45051,7 @@
         <v>45008</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45107,7 +45108,7 @@
         <v>45014</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45164,7 +45165,7 @@
         <v>45020</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45221,7 +45222,7 @@
         <v>45021</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45278,7 +45279,7 @@
         <v>45028</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45335,7 +45336,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45392,7 +45393,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45449,7 +45450,7 @@
         <v>45036</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45506,7 +45507,7 @@
         <v>45036</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45563,7 +45564,7 @@
         <v>45041</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45620,7 +45621,7 @@
         <v>45041</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45677,7 +45678,7 @@
         <v>45043</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45734,7 +45735,7 @@
         <v>45044</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45791,7 +45792,7 @@
         <v>45044</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45848,7 +45849,7 @@
         <v>45048</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45905,7 +45906,7 @@
         <v>45049</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45962,7 +45963,7 @@
         <v>45050</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46019,7 +46020,7 @@
         <v>45050</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46076,7 +46077,7 @@
         <v>45054</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46133,7 +46134,7 @@
         <v>45056</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46195,7 +46196,7 @@
         <v>45056</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46257,7 +46258,7 @@
         <v>45057</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46319,7 +46320,7 @@
         <v>45058</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46396,7 +46397,7 @@
         <v>45058</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46453,7 +46454,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46515,7 +46516,7 @@
         <v>45063</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46572,7 +46573,7 @@
         <v>45068</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46629,7 +46630,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46691,7 +46692,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46753,7 +46754,7 @@
         <v>45077</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46815,7 +46816,7 @@
         <v>45079</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46872,7 +46873,7 @@
         <v>45079</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46929,7 +46930,7 @@
         <v>45086</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46991,7 +46992,7 @@
         <v>45093</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47048,7 +47049,7 @@
         <v>45093</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47105,7 +47106,7 @@
         <v>45093</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47162,7 +47163,7 @@
         <v>45093</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47219,7 +47220,7 @@
         <v>45099</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47276,7 +47277,7 @@
         <v>45099</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47333,7 +47334,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47390,7 +47391,7 @@
         <v>45103</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47452,7 +47453,7 @@
         <v>45103</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47509,7 +47510,7 @@
         <v>45103</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47571,7 +47572,7 @@
         <v>45103</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47628,7 +47629,7 @@
         <v>45103</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47685,7 +47686,7 @@
         <v>45103</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47742,7 +47743,7 @@
         <v>45103</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47804,7 +47805,7 @@
         <v>45103</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47861,7 +47862,7 @@
         <v>45103</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47918,7 +47919,7 @@
         <v>45106</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47975,7 +47976,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48037,7 +48038,7 @@
         <v>45107</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48099,7 +48100,7 @@
         <v>45107</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48156,7 +48157,7 @@
         <v>45107</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48218,7 +48219,7 @@
         <v>45107</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48275,7 +48276,7 @@
         <v>45111</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48332,7 +48333,7 @@
         <v>45117</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48389,7 +48390,7 @@
         <v>45118</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48446,7 +48447,7 @@
         <v>45118</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48503,7 +48504,7 @@
         <v>45119</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48565,7 +48566,7 @@
         <v>45120</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48627,7 +48628,7 @@
         <v>45138</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48684,7 +48685,7 @@
         <v>45140</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48746,7 +48747,7 @@
         <v>45146</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48808,7 +48809,7 @@
         <v>45146</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48870,7 +48871,7 @@
         <v>45151</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48927,7 +48928,7 @@
         <v>45154</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48984,7 +48985,7 @@
         <v>45154</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49041,7 +49042,7 @@
         <v>45156</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49098,7 +49099,7 @@
         <v>45159</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49160,7 +49161,7 @@
         <v>45170</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49217,7 +49218,7 @@
         <v>45182</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49279,7 +49280,7 @@
         <v>45183</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49336,7 +49337,7 @@
         <v>45183</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49398,7 +49399,7 @@
         <v>45183</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49445,7 +49446,7 @@
       </c>
       <c r="R799" s="2" t="inlineStr"/>
     </row>
-    <row r="800">
+    <row r="800" ht="15" customHeight="1">
       <c r="A800" t="inlineStr">
         <is>
           <t>A 43161-2023</t>
@@ -49455,7 +49456,7 @@
         <v>45183</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49501,6 +49502,63 @@
         <v>0</v>
       </c>
       <c r="R800" s="2" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>A 44917-2023</t>
+        </is>
+      </c>
+      <c r="B801" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C801" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>ESKILSTUNA</t>
+        </is>
+      </c>
+      <c r="G801" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0</v>
+      </c>
+      <c r="I801" t="n">
+        <v>0</v>
+      </c>
+      <c r="J801" t="n">
+        <v>0</v>
+      </c>
+      <c r="K801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N801" t="n">
+        <v>0</v>
+      </c>
+      <c r="O801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R801" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43859</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>45181</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43357</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>43816</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43740</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43745</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44544</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44105</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44819</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44581</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44768</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44789</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44953</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43740</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44139</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44284</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44657</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44916</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44953</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>44978</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45044</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45044</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43551</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43740</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43861</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44133</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44530</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44544</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44712</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44712</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>44930</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43507</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43738</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43740</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43921</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43964</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44060</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>44134</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>44378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>44582</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>44664</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44803</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44834</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44854</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44918</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45012</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>45050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>45063</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>45077</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>45086</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>45091</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45091</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>45097</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45141</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43353</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43360</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43360</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43388</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43396</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43406</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43406</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>43413</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43413</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>43418</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43426</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43426</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43427</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43431</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43431</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>43439</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>43441</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>43441</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43452</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43455</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43455</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43460</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43461</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43464</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43464</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43466</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43468</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43474</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43475</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43479</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43479</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43480</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43486</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43489</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43493</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43494</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43496</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43507</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43507</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43507</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43509</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43511</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43517</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43521</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43521</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43521</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43523</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43524</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>43524</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>43524</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43526</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43528</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43537</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>43538</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43539</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43539</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43542</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43557</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43559</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>43559</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43564</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43570</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43580</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43580</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43585</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43595</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43619</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>43643</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>43656</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43662</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43677</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43678</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43679</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43684</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>43684</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>43685</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43690</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43690</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>43696</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43696</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>43705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43706</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43712</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>43712</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>43713</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>43721</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43728</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43740</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43752</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>43754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43762</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43763</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>43768</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43771</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>43781</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>43781</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43784</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43787</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43787</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43788</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43788</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43788</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43788</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43789</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43791</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>43795</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>43795</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>43797</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>43804</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>43804</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>43804</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>43804</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>43804</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>43805</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>43805</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>43808</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>43808</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>43808</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>43808</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>43808</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>43812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>43812</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>43812</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>43812</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43816</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>43844</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>43845</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>43846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>43848</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>43850</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>43850</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>43851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>43853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>43853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>43859</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>43860</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>43862</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>43866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>43885</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>43896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>43903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>43908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>43921</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>43921</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>43937</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>43938</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43938</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>43938</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>43941</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>43962</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>43966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>43966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>43966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>43985</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43985</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>43986</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>43986</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>43992</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>43992</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>43997</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>43997</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44000</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44000</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44006</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44013</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44014</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>44019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44035</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>44039</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>44041</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44042</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44042</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>44048</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44048</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44055</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>44055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22550,7 +22550,7 @@
         <v>44060</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>44068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22664,7 +22664,7 @@
         <v>44069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>44069</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>44069</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44070</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44075</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>44081</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>44085</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44088</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44088</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44089</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44090</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44094</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44099</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44099</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44099</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44105</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44105</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44105</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44109</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44120</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44130</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24072,7 +24072,7 @@
         <v>44132</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44132</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44132</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>44132</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44134</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44144</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44145</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>44145</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>44152</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>44155</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>44155</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44165</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44166</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44167</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44172</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44172</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44172</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44175</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44176</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44180</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44188</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44194</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44203</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44203</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44209</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>44209</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>44211</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26241,7 +26241,7 @@
         <v>44211</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>44214</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44221</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44224</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44230</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44238</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44238</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44239</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44239</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44245</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>44245</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44245</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>44245</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44250</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44251</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>44262</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>44262</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>44280</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>44284</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44285</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44295</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44298</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44306</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44307</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44308</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44312</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44328</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>44329</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>44336</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>44350</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>44355</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44355</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>44362</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>44362</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>44368</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>44379</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44403</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44405</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44410</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44410</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44410</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44426</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>44426</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44426</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44426</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>44431</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>44431</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>44431</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>44432</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>44432</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>44432</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>44432</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44432</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>44434</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29959,7 +29959,7 @@
         <v>44435</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>44441</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>44441</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>44449</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>44449</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44449</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44449</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>44452</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>44452</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>44453</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30554,7 +30554,7 @@
         <v>44454</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>44455</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>44461</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30725,7 +30725,7 @@
         <v>44467</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44467</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44468</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30896,7 +30896,7 @@
         <v>44468</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44469</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>44469</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44470</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44473</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>44473</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>44483</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         <v>44484</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44490</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44490</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44490</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44490</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44494</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44495</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44497</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>44497</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>44499</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>44499</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>44503</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>44510</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32108,7 +32108,7 @@
         <v>44515</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44516</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44516</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44516</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44516</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44522</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32460,7 +32460,7 @@
         <v>44524</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         <v>44524</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32574,7 +32574,7 @@
         <v>44525</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32631,7 +32631,7 @@
         <v>44533</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32688,7 +32688,7 @@
         <v>44533</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>44533</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>44533</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>44533</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>44536</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44536</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44536</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44536</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44536</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44537</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44544</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44544</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44550</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44573</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44582</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44585</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44588</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>44588</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>44588</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44588</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33947,7 +33947,7 @@
         <v>44588</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44592</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44593</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44594</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>44606</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>44606</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44608</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44608</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44610</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44613</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44616</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44617</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44617</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44617</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44618</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44626</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44628</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44628</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44634</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44636</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44638</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44642</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44643</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>44644</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44648</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44654</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44655</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35578,7 +35578,7 @@
         <v>44658</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35640,7 +35640,7 @@
         <v>44662</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35697,7 +35697,7 @@
         <v>44662</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35754,7 +35754,7 @@
         <v>44662</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35811,7 +35811,7 @@
         <v>44664</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35868,7 +35868,7 @@
         <v>44664</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>44664</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>44664</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36168,7 +36168,7 @@
         <v>44673</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36225,7 +36225,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36282,7 +36282,7 @@
         <v>44683</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36339,7 +36339,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44689</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44693</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44698</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44699</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44701</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44720</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44722</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36934,7 +36934,7 @@
         <v>44729</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
         <v>44729</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44732</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>44732</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44732</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44733</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44734</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>44746</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>44746</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>44746</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>44746</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>44746</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44746</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44749</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44755</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>44755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>44756</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>44763</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>44768</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>44781</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44781</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38181,7 +38181,7 @@
         <v>44781</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38238,7 +38238,7 @@
         <v>44782</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38295,7 +38295,7 @@
         <v>44783</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38352,7 +38352,7 @@
         <v>44784</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38409,7 +38409,7 @@
         <v>44785</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38471,7 +38471,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38528,7 +38528,7 @@
         <v>44789</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>44792</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38642,7 +38642,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38699,7 +38699,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38756,7 +38756,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38813,7 +38813,7 @@
         <v>44804</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>44804</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38927,7 +38927,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38984,7 +38984,7 @@
         <v>44804</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39041,7 +39041,7 @@
         <v>44804</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39098,7 +39098,7 @@
         <v>44805</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44819</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44819</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         <v>44825</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>44825</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39507,7 +39507,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39564,7 +39564,7 @@
         <v>44834</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39621,7 +39621,7 @@
         <v>44834</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39678,7 +39678,7 @@
         <v>44837</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44839</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44842</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44844</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44844</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44851</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44851</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44851</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44864</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44865</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40444,7 +40444,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>44865</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>44865</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44871</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44873</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44874</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44874</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44875</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44881</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44883</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44883</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44883</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44886</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44886</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44886</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44886</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44886</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44889</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44889</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>44889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>44900</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>44903</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>44903</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>44903</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>44903</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>44904</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42065,7 +42065,7 @@
         <v>44909</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>44914</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>44915</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>44915</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>44915</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>44917</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42407,7 +42407,7 @@
         <v>44917</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42464,7 +42464,7 @@
         <v>44918</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>44918</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>44925</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>44928</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44930</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44930</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44930</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42863,7 +42863,7 @@
         <v>44942</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44942</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>44946</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>44946</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>44946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43148,7 +43148,7 @@
         <v>44946</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43205,7 +43205,7 @@
         <v>44946</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43262,7 +43262,7 @@
         <v>44953</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>44953</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>44955</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43443,7 +43443,7 @@
         <v>44956</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>44957</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43557,7 +43557,7 @@
         <v>44959</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>44959</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>44964</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43728,7 +43728,7 @@
         <v>44964</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43785,7 +43785,7 @@
         <v>44965</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>44965</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>44965</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>44966</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>44966</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>44966</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>44966</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>44966</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>44978</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>44979</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>44983</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44422,7 +44422,7 @@
         <v>44985</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44479,7 +44479,7 @@
         <v>44985</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44536,7 +44536,7 @@
         <v>44998</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44598,7 +44598,7 @@
         <v>44998</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44655,7 +44655,7 @@
         <v>44998</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45002</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45004</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45005</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45005</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44950,7 +44950,7 @@
         <v>45006</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45007,7 +45007,7 @@
         <v>45006</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45064,7 +45064,7 @@
         <v>45008</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45121,7 +45121,7 @@
         <v>45014</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45178,7 +45178,7 @@
         <v>45020</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         <v>45021</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45292,7 +45292,7 @@
         <v>45028</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45349,7 +45349,7 @@
         <v>45029</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45406,7 +45406,7 @@
         <v>45036</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45463,7 +45463,7 @@
         <v>45036</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45520,7 +45520,7 @@
         <v>45036</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45577,7 +45577,7 @@
         <v>45041</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45634,7 +45634,7 @@
         <v>45041</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45691,7 +45691,7 @@
         <v>45043</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45748,7 +45748,7 @@
         <v>45044</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45805,7 +45805,7 @@
         <v>45044</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45862,7 +45862,7 @@
         <v>45048</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45919,7 +45919,7 @@
         <v>45049</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45976,7 +45976,7 @@
         <v>45050</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46033,7 +46033,7 @@
         <v>45050</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D742" t="inlineS